--- a/docs/fesity_check_table.xlsx
+++ b/docs/fesity_check_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cpetrik/Dropbox/Princeton/FEISTY/CODE/fish-offline/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC82D5A-59B9-E940-9C08-6E2D026532AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9EE8E14-9556-CB40-884B-F3F52EAFDA60}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1580" yWindow="460" windowWidth="15620" windowHeight="16560" xr2:uid="{75A10E79-64A5-084D-ADB9-F0FE4D64B0E0}"/>
+    <workbookView xWindow="1580" yWindow="460" windowWidth="15740" windowHeight="17540" xr2:uid="{75A10E79-64A5-084D-ADB9-F0FE4D64B0E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1751" uniqueCount="394">
   <si>
     <t>param = make_parameters_1meso()</t>
   </si>
@@ -1099,6 +1099,114 @@
   </si>
   <si>
     <t>Sf.con_zm = sub_cons(param,ENVR.Tp,ENVR.Tb,Sf.td,param.M_s,Sf.enc_zm)</t>
+  </si>
+  <si>
+    <t>param.kc</t>
+  </si>
+  <si>
+    <t>Sp.con_zm = sub_cons(param,ENVR.Tp,ENVR.Tb,Sp.td,param.M_s,Sp.enc_zm)</t>
+  </si>
+  <si>
+    <t>Sd.con_zm = sub_cons(param,ENVR.Tp,ENVR.Tb,Sd.td,param.M_s,Sd.enc_zm)</t>
+  </si>
+  <si>
+    <t>Mf.con_zm = sub_cons(param,ENVR.Tp,ENVR.Tb,Mf.td,param.M_m,[Mf.enc_zm,Mf.enc_f,Mf.enc_p,Mf.enc_d])</t>
+  </si>
+  <si>
+    <t>Mf.con_f  = sub_cons(param,ENVR.Tp,ENVR.Tb,Mf.td,param.M_m,[Mf.enc_f,Mf.enc_zm,Mf.enc_p,Mf.enc_d])</t>
+  </si>
+  <si>
+    <t>Mf.con_p  = sub_cons(param,ENVR.Tp,ENVR.Tb,Mf.td,param.M_m,[Mf.enc_p,Mf.enc_zm,Mf.enc_f,Mf.enc_d])</t>
+  </si>
+  <si>
+    <t>Mf.con_d  = sub_cons(param,ENVR.Tp,ENVR.Tb,Mf.td,param.M_m,[Mf.enc_d,Mf.enc_zm,Mf.enc_f,Mf.enc_p])</t>
+  </si>
+  <si>
+    <t>Mp.con_zm = sub_cons(param,ENVR.Tp,ENVR.Tb,Mp.td,param.M_m,[Mp.enc_zm,Mp.enc_f,Mp.enc_p,Mp.enc_d])</t>
+  </si>
+  <si>
+    <t>Mp.con_f  = sub_cons(param,ENVR.Tp,ENVR.Tb,Mp.td,param.M_m,[Mp.enc_f,Mp.enc_zm,Mp.enc_p,Mp.enc_d])</t>
+  </si>
+  <si>
+    <t>Mp.con_p  = sub_cons(param,ENVR.Tp,ENVR.Tb,Mp.td,param.M_m,[Mp.enc_p,Mp.enc_zm,Mp.enc_f,Mp.enc_d])</t>
+  </si>
+  <si>
+    <t>Mp.con_d  = sub_cons(param,ENVR.Tp,ENVR.Tb,Mp.td,param.M_m,[Mp.enc_d,Mp.enc_zm,Mp.enc_f,Mp.enc_p])</t>
+  </si>
+  <si>
+    <t>Md.con_be = sub_cons(param,ENVR.Tp,ENVR.Tb,Md.td,param.M_m,Md.enc_be)</t>
+  </si>
+  <si>
+    <t>Lp.con_f  = sub_cons(param,ENVR.Tp,ENVR.Tb,Lp.td,param.M_l,[Lp.enc_f,Lp.enc_p,Lp.enc_d])</t>
+  </si>
+  <si>
+    <t>Lp.con_p  = sub_cons(param,ENVR.Tp,ENVR.Tb,Lp.td,param.M_l,[Lp.enc_p,Lp.enc_f,Lp.enc_d])</t>
+  </si>
+  <si>
+    <t>Lp.con_d  = sub_cons(param,ENVR.Tp,ENVR.Tb,Lp.td,param.M_l,[Lp.enc_d,Lp.enc_p,Lp.enc_f])</t>
+  </si>
+  <si>
+    <t>Ld.con_f  = sub_cons(param,ENVR.Tp,ENVR.Tb,Ld.td,param.M_l,[Ld.enc_f,Ld.enc_p,Ld.enc_d,Ld.enc_be]</t>
+  </si>
+  <si>
+    <t>Ld.con_p  = sub_cons(param,ENVR.Tp,ENVR.Tb,Ld.td,param.M_l,[Ld.enc_p,Ld.enc_f,Ld.enc_d,Ld.enc_be])</t>
+  </si>
+  <si>
+    <t>Ld.con_d  = sub_cons(param,ENVR.Tp,ENVR.Tb,Ld.td,param.M_l,[Ld.enc_d,Ld.enc_p,Ld.enc_f,Ld.enc_be])</t>
+  </si>
+  <si>
+    <t>Ld.con_be = sub_cons(param,ENVR.Tp,ENVR.Tb,Ld.td,param.M_l,[Ld.enc_be,Ld.enc_f,Ld.enc_p,Ld.enc_d])</t>
+  </si>
+  <si>
+    <t>[Sf.con_zm,Sp.con_zm,Sd.con_zm,Mf.con_zm,Mp.con_zm,ENVR.fZm] = sub_offline_zm(Sf.con_zm,Sp.con_zm,Sd.con_zm,Mf.con_zm,Mp.con_zm,Sf.bio,Sp.bio,Sd.bio,Mf.bio,Mp.bio,ENVR.dZm)</t>
+  </si>
+  <si>
+    <t>Sf.I = Sf.con_zm</t>
+  </si>
+  <si>
+    <t>Mf.I = Mf.con_zm + Mf.con_f + Mf.con_p + Mf.con_d</t>
+  </si>
+  <si>
+    <t>Sp.I = S.con_zm</t>
+  </si>
+  <si>
+    <t>Sd.I = Sd.con_zm</t>
+  </si>
+  <si>
+    <t>Mp.I = Mp.con_zm + Mp.con_f + Mp.con_p + Mp.con_d</t>
+  </si>
+  <si>
+    <t>Md.I = Md.con_be</t>
+  </si>
+  <si>
+    <t>Lp.I = Lp.con_f + Lp.con_p + Lp.con_d</t>
+  </si>
+  <si>
+    <t>Ld.I = Ld.con_f + Ld.con_p + Ld.con_d + Ld.con_be</t>
+  </si>
+  <si>
+    <t>Sf.clev = sub_clev(param,Sf.I,ENVR.Tp,ENVR.Tb,Sf.td,param.M_s)</t>
+  </si>
+  <si>
+    <t>Sp.clev = sub_clev(param,Sp.I,ENVR.Tp,ENVR.Tb,Sp.td,param.M_s)</t>
+  </si>
+  <si>
+    <t>Sd.clev = sub_clev(param,Sd.I,ENVR.Tp,ENVR.Tb,Sd.td,param.M_s)</t>
+  </si>
+  <si>
+    <t>Mf.clev = sub_clev(param,Mf.I,ENVR.Tp,ENVR.Tb,Mf.td,param.M_m)</t>
+  </si>
+  <si>
+    <t>Mp.clev = sub_clev(param,Mp.I,ENVR.Tp,ENVR.Tb,Mp.td,param.M_m)</t>
+  </si>
+  <si>
+    <t>Md.clev = sub_clev(param,Md.I,ENVR.Tp,ENVR.Tb,Md.td,param.M_m)</t>
+  </si>
+  <si>
+    <t>Lp.clev = sub_clev(param,Lp.I,ENVR.Tp,ENVR.Tb,Lp.td,param.L_l)</t>
+  </si>
+  <si>
+    <t>Ld.clev = sub_clev(param,Ld.I,ENVR.Tp,ENVR.Tb,Ld.td,param.L_l)</t>
   </si>
 </sst>
 </file>
@@ -1482,10 +1590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05544419-54E0-4341-8244-0AE65D17B22B}">
-  <dimension ref="A3:G720"/>
+  <dimension ref="A3:G1148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A688" workbookViewId="0">
-      <selection activeCell="A719" sqref="A719"/>
+    <sheetView tabSelected="1" topLeftCell="A1115" workbookViewId="0">
+      <selection activeCell="A1140" sqref="A1140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9041,7 +9149,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="705" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B705" s="4" t="s">
         <v>1</v>
       </c>
@@ -9061,7 +9169,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="706" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B706" s="1" t="s">
         <v>32</v>
       </c>
@@ -9078,7 +9186,7 @@
         <v>1.44E-2</v>
       </c>
     </row>
-    <row r="707" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B707" s="1" t="s">
         <v>30</v>
       </c>
@@ -9086,7 +9194,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="708" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B708" s="1" t="s">
         <v>35</v>
       </c>
@@ -9094,7 +9202,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="709" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B709" s="1" t="s">
         <v>335</v>
       </c>
@@ -9102,7 +9210,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="710" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B710" t="s">
         <v>312</v>
       </c>
@@ -9113,7 +9221,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="711" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B711" t="s">
         <v>313</v>
       </c>
@@ -9124,7 +9232,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="712" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B712" s="1" t="s">
         <v>20</v>
       </c>
@@ -9132,7 +9240,7 @@
         <v>5590.2</v>
       </c>
     </row>
-    <row r="713" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B713" s="1" t="s">
         <v>324</v>
       </c>
@@ -9143,7 +9251,7 @@
         <v>0.72350000000000003</v>
       </c>
     </row>
-    <row r="714" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B714" s="1" t="s">
         <v>265</v>
       </c>
@@ -9154,7 +9262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="715" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B715" s="1" t="s">
         <v>355</v>
       </c>
@@ -9167,7 +9275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="716" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B716" s="1" t="s">
         <v>56</v>
       </c>
@@ -9175,7 +9283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="718" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C718" t="s">
         <v>81</v>
       </c>
@@ -9189,12 +9297,15 @@
         <v>82</v>
       </c>
     </row>
-    <row r="719" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A719" s="4">
+        <v>36</v>
+      </c>
       <c r="B719" s="3" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="720" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B720" s="4" t="s">
         <v>1</v>
       </c>
@@ -9212,6 +9323,4702 @@
       </c>
       <c r="G720" s="4" t="s">
         <v>80</v>
+      </c>
+    </row>
+    <row r="721" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B721" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C721">
+        <v>6.3E-2</v>
+      </c>
+      <c r="E721" t="s">
+        <v>94</v>
+      </c>
+      <c r="F721">
+        <v>0.1139</v>
+      </c>
+      <c r="G721">
+        <v>0.18640000000000001</v>
+      </c>
+    </row>
+    <row r="722" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B722" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C722">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="723" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B723" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C723">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="724" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B724" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C724">
+        <v>9.6</v>
+      </c>
+      <c r="D724">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="725" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B725" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C725">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D725">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="726" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B726" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C726">
+        <v>1</v>
+      </c>
+      <c r="D726">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="727" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B727" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C727">
+        <v>2.24E-2</v>
+      </c>
+    </row>
+    <row r="728" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B728" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C728">
+        <v>0.64790000000000003</v>
+      </c>
+      <c r="D728">
+        <v>1.8853</v>
+      </c>
+    </row>
+    <row r="730" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C730" t="s">
+        <v>81</v>
+      </c>
+      <c r="D730" t="s">
+        <v>82</v>
+      </c>
+      <c r="F730" t="s">
+        <v>81</v>
+      </c>
+      <c r="G730" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="731" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A731" s="4">
+        <v>37</v>
+      </c>
+      <c r="B731" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="732" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B732" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C732" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D732" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E732" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F732" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G732" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="733" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B733" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C733">
+        <v>6.3E-2</v>
+      </c>
+      <c r="E733" t="s">
+        <v>120</v>
+      </c>
+      <c r="F733">
+        <v>0.1139</v>
+      </c>
+      <c r="G733">
+        <v>0.18640000000000001</v>
+      </c>
+    </row>
+    <row r="734" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B734" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C734">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="735" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B735" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C735">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="736" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B736" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C736">
+        <v>9.6</v>
+      </c>
+      <c r="D736">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="737" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B737" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C737">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D737">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="738" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B738" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C738">
+        <v>1</v>
+      </c>
+      <c r="D738">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="739" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B739" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C739">
+        <v>2.24E-2</v>
+      </c>
+    </row>
+    <row r="740" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B740" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C740">
+        <v>0.64790000000000003</v>
+      </c>
+      <c r="D740">
+        <v>1.8853</v>
+      </c>
+    </row>
+    <row r="742" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C742" t="s">
+        <v>81</v>
+      </c>
+      <c r="D742" t="s">
+        <v>82</v>
+      </c>
+      <c r="F742" t="s">
+        <v>81</v>
+      </c>
+      <c r="G742" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="743" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A743" s="4">
+        <v>38</v>
+      </c>
+      <c r="B743" s="3" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="744" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B744" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C744" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D744" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E744" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F744" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G744" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="745" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B745" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C745">
+        <v>6.3E-2</v>
+      </c>
+      <c r="E745" t="s">
+        <v>146</v>
+      </c>
+      <c r="F745">
+        <v>0.1139</v>
+      </c>
+      <c r="G745">
+        <v>0.18640000000000001</v>
+      </c>
+    </row>
+    <row r="746" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B746" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C746">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="747" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B747" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C747">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="748" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B748" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C748">
+        <v>9.6</v>
+      </c>
+      <c r="D748">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="749" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B749" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C749">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D749">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="750" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B750" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C750">
+        <v>1</v>
+      </c>
+      <c r="D750">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="751" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B751" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C751">
+        <v>2.24E-2</v>
+      </c>
+    </row>
+    <row r="752" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B752" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C752">
+        <v>0.64790000000000003</v>
+      </c>
+      <c r="D752">
+        <v>1.8853</v>
+      </c>
+    </row>
+    <row r="754" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C754" t="s">
+        <v>81</v>
+      </c>
+      <c r="D754" t="s">
+        <v>82</v>
+      </c>
+      <c r="F754" t="s">
+        <v>81</v>
+      </c>
+      <c r="G754" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="755" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A755" s="4">
+        <v>39</v>
+      </c>
+      <c r="B755" s="3" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="756" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B756" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C756" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D756" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E756" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F756" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G756" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="757" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B757" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C757">
+        <v>6.3E-2</v>
+      </c>
+      <c r="E757" t="s">
+        <v>172</v>
+      </c>
+      <c r="F757">
+        <v>2.1700000000000001E-2</v>
+      </c>
+      <c r="G757">
+        <v>3.7100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="758" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B758" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C758">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="759" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B759" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C759">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="760" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B760" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C760">
+        <v>9.6</v>
+      </c>
+      <c r="D760">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="761" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B761" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C761">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D761">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="762" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B762" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C762">
+        <v>1</v>
+      </c>
+      <c r="D762">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="763" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B763" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C763">
+        <v>11.180300000000001</v>
+      </c>
+    </row>
+    <row r="764" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B764" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C764">
+        <v>9.35E-2</v>
+      </c>
+      <c r="D764">
+        <v>0.27200000000000002</v>
+      </c>
+    </row>
+    <row r="765" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B765" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C765">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="D765">
+        <v>3.8E-3</v>
+      </c>
+    </row>
+    <row r="766" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B766" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C766" s="2">
+        <v>1.3850000000000001E-4</v>
+      </c>
+      <c r="D766" s="2">
+        <v>2.0719999999999999E-4</v>
+      </c>
+    </row>
+    <row r="767" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B767" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C767" s="2">
+        <v>5.5389999999999997E-4</v>
+      </c>
+      <c r="D767" s="2">
+        <v>8.2890000000000004E-4</v>
+      </c>
+    </row>
+    <row r="769" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C769" t="s">
+        <v>81</v>
+      </c>
+      <c r="D769" t="s">
+        <v>82</v>
+      </c>
+      <c r="F769" t="s">
+        <v>81</v>
+      </c>
+      <c r="G769" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="770" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A770" s="4">
+        <v>40</v>
+      </c>
+      <c r="B770" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="771" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B771" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C771" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D771" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E771" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F771" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G771" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="772" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B772" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C772">
+        <v>6.3E-2</v>
+      </c>
+      <c r="E772" t="s">
+        <v>169</v>
+      </c>
+      <c r="F772" s="2">
+        <v>5.8909999999999995E-4</v>
+      </c>
+      <c r="G772" s="2">
+        <v>5.1829999999999997E-4</v>
+      </c>
+    </row>
+    <row r="773" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B773" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C773">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="774" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B774" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C774">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="775" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B775" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C775">
+        <v>9.6</v>
+      </c>
+      <c r="D775">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="776" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B776" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C776">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D776">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="777" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B777" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C777">
+        <v>1</v>
+      </c>
+      <c r="D777">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="778" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B778" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C778">
+        <v>11.180300000000001</v>
+      </c>
+    </row>
+    <row r="779" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B779" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C779">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="D779">
+        <v>3.8E-3</v>
+      </c>
+    </row>
+    <row r="780" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B780" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C780">
+        <v>9.35E-2</v>
+      </c>
+      <c r="D780">
+        <v>0.27200000000000002</v>
+      </c>
+    </row>
+    <row r="781" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B781" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C781" s="2">
+        <v>1.3850000000000001E-4</v>
+      </c>
+      <c r="D781" s="2">
+        <v>2.0719999999999999E-4</v>
+      </c>
+    </row>
+    <row r="782" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B782" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C782" s="2">
+        <v>5.5389999999999997E-4</v>
+      </c>
+      <c r="D782" s="2">
+        <v>8.2890000000000004E-4</v>
+      </c>
+    </row>
+    <row r="784" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C784" t="s">
+        <v>81</v>
+      </c>
+      <c r="D784" t="s">
+        <v>82</v>
+      </c>
+      <c r="F784" t="s">
+        <v>81</v>
+      </c>
+      <c r="G784" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="785" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A785" s="4">
+        <v>41</v>
+      </c>
+      <c r="B785" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="786" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B786" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C786" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D786" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E786" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F786" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G786" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="787" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B787" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C787">
+        <v>6.3E-2</v>
+      </c>
+      <c r="E787" t="s">
+        <v>170</v>
+      </c>
+      <c r="F787" s="2">
+        <v>3.2129999999999999E-5</v>
+      </c>
+      <c r="G787" s="2">
+        <v>2.8269999999999999E-5</v>
+      </c>
+    </row>
+    <row r="788" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B788" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C788">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="789" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B789" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C789">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="790" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B790" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C790">
+        <v>9.6</v>
+      </c>
+      <c r="D790">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="791" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B791" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C791">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D791">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="792" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B792" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C792">
+        <v>1</v>
+      </c>
+      <c r="D792">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="793" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B793" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C793">
+        <v>11.180300000000001</v>
+      </c>
+    </row>
+    <row r="794" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B794" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C794" s="2">
+        <v>1.3850000000000001E-4</v>
+      </c>
+      <c r="D794" s="2">
+        <v>2.0719999999999999E-4</v>
+      </c>
+    </row>
+    <row r="795" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B795" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C795">
+        <v>9.35E-2</v>
+      </c>
+      <c r="D795">
+        <v>0.27200000000000002</v>
+      </c>
+    </row>
+    <row r="796" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B796" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C796">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="D796">
+        <v>3.8E-3</v>
+      </c>
+    </row>
+    <row r="797" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B797" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C797" s="2">
+        <v>5.5389999999999997E-4</v>
+      </c>
+      <c r="D797" s="2">
+        <v>8.2890000000000004E-4</v>
+      </c>
+    </row>
+    <row r="799" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C799" t="s">
+        <v>81</v>
+      </c>
+      <c r="D799" t="s">
+        <v>82</v>
+      </c>
+      <c r="F799" t="s">
+        <v>81</v>
+      </c>
+      <c r="G799" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="800" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A800" s="4">
+        <v>42</v>
+      </c>
+      <c r="B800" s="3" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="801" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B801" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C801" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D801" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E801" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F801" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G801" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="802" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B802" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C802">
+        <v>6.3E-2</v>
+      </c>
+      <c r="E802" t="s">
+        <v>171</v>
+      </c>
+      <c r="F802" s="2">
+        <v>1.2850000000000001E-4</v>
+      </c>
+      <c r="G802" s="2">
+        <v>1.131E-4</v>
+      </c>
+    </row>
+    <row r="803" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B803" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C803">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="804" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B804" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C804">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="805" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B805" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C805">
+        <v>9.6</v>
+      </c>
+      <c r="D805">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="806" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B806" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C806">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D806">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="807" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B807" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C807">
+        <v>1</v>
+      </c>
+      <c r="D807">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="808" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B808" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C808">
+        <v>11.180300000000001</v>
+      </c>
+    </row>
+    <row r="809" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B809" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C809" s="2">
+        <v>5.5389999999999997E-4</v>
+      </c>
+      <c r="D809" s="2">
+        <v>8.2890000000000004E-4</v>
+      </c>
+    </row>
+    <row r="810" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B810" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C810">
+        <v>9.35E-2</v>
+      </c>
+      <c r="D810">
+        <v>0.27200000000000002</v>
+      </c>
+    </row>
+    <row r="811" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B811" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C811">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="D811">
+        <v>3.8E-3</v>
+      </c>
+    </row>
+    <row r="812" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B812" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C812" s="2">
+        <v>1.3850000000000001E-4</v>
+      </c>
+      <c r="D812" s="2">
+        <v>2.0719999999999999E-4</v>
+      </c>
+    </row>
+    <row r="814" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C814" t="s">
+        <v>81</v>
+      </c>
+      <c r="D814" t="s">
+        <v>82</v>
+      </c>
+      <c r="F814" t="s">
+        <v>81</v>
+      </c>
+      <c r="G814" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="815" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A815" s="4">
+        <v>43</v>
+      </c>
+      <c r="B815" s="3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="816" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B816" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C816" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D816" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E816" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F816" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G816" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="817" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B817" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C817">
+        <v>6.3E-2</v>
+      </c>
+      <c r="E817" t="s">
+        <v>198</v>
+      </c>
+      <c r="F817">
+        <v>2.1700000000000001E-2</v>
+      </c>
+      <c r="G817">
+        <v>3.7100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="818" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B818" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C818">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="819" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B819" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C819">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="820" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B820" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C820">
+        <v>9.6</v>
+      </c>
+      <c r="D820">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="821" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B821" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C821">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D821">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="822" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B822" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C822">
+        <v>1</v>
+      </c>
+      <c r="D822">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="823" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B823" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C823">
+        <v>11.180300000000001</v>
+      </c>
+    </row>
+    <row r="824" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B824" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C824">
+        <v>9.35E-2</v>
+      </c>
+      <c r="D824">
+        <v>0.27200000000000002</v>
+      </c>
+    </row>
+    <row r="825" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B825" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C825">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="D825">
+        <v>3.8E-3</v>
+      </c>
+    </row>
+    <row r="826" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B826" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C826" s="2">
+        <v>1.3850000000000001E-4</v>
+      </c>
+      <c r="D826" s="2">
+        <v>2.0719999999999999E-4</v>
+      </c>
+    </row>
+    <row r="827" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B827" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C827" s="2">
+        <v>5.5389999999999997E-4</v>
+      </c>
+      <c r="D827" s="2">
+        <v>8.2890000000000004E-4</v>
+      </c>
+    </row>
+    <row r="829" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C829" t="s">
+        <v>81</v>
+      </c>
+      <c r="D829" t="s">
+        <v>82</v>
+      </c>
+      <c r="F829" t="s">
+        <v>81</v>
+      </c>
+      <c r="G829" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="830" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A830" s="4">
+        <v>44</v>
+      </c>
+      <c r="B830" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="831" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B831" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C831" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D831" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E831" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F831" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G831" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="832" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B832" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C832">
+        <v>6.3E-2</v>
+      </c>
+      <c r="E832" t="s">
+        <v>195</v>
+      </c>
+      <c r="F832" s="2">
+        <v>5.8909999999999995E-4</v>
+      </c>
+      <c r="G832" s="2">
+        <v>5.1829999999999997E-4</v>
+      </c>
+    </row>
+    <row r="833" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B833" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C833">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="834" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B834" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C834">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="835" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B835" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C835">
+        <v>9.6</v>
+      </c>
+      <c r="D835">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="836" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B836" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C836">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D836">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="837" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B837" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C837">
+        <v>1</v>
+      </c>
+      <c r="D837">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="838" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B838" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C838">
+        <v>11.180300000000001</v>
+      </c>
+    </row>
+    <row r="839" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B839" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C839">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="D839">
+        <v>3.8E-3</v>
+      </c>
+    </row>
+    <row r="840" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B840" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C840">
+        <v>9.35E-2</v>
+      </c>
+      <c r="D840">
+        <v>0.27200000000000002</v>
+      </c>
+    </row>
+    <row r="841" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B841" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C841" s="2">
+        <v>1.3850000000000001E-4</v>
+      </c>
+      <c r="D841" s="2">
+        <v>2.0719999999999999E-4</v>
+      </c>
+    </row>
+    <row r="842" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B842" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C842" s="2">
+        <v>5.5389999999999997E-4</v>
+      </c>
+      <c r="D842" s="2">
+        <v>8.2890000000000004E-4</v>
+      </c>
+    </row>
+    <row r="844" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C844" t="s">
+        <v>81</v>
+      </c>
+      <c r="D844" t="s">
+        <v>82</v>
+      </c>
+      <c r="F844" t="s">
+        <v>81</v>
+      </c>
+      <c r="G844" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="845" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A845" s="4">
+        <v>45</v>
+      </c>
+      <c r="B845" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="846" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B846" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C846" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D846" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E846" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F846" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G846" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="847" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B847" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C847">
+        <v>6.3E-2</v>
+      </c>
+      <c r="E847" t="s">
+        <v>196</v>
+      </c>
+      <c r="F847" s="2">
+        <v>3.2129999999999999E-5</v>
+      </c>
+      <c r="G847" s="2">
+        <v>2.8269999999999999E-5</v>
+      </c>
+    </row>
+    <row r="848" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B848" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C848">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="849" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B849" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C849">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="850" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B850" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C850">
+        <v>9.6</v>
+      </c>
+      <c r="D850">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="851" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B851" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C851">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D851">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="852" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B852" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C852">
+        <v>1</v>
+      </c>
+      <c r="D852">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="853" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B853" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C853">
+        <v>11.180300000000001</v>
+      </c>
+    </row>
+    <row r="854" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B854" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C854" s="2">
+        <v>1.3850000000000001E-4</v>
+      </c>
+      <c r="D854" s="2">
+        <v>2.0719999999999999E-4</v>
+      </c>
+    </row>
+    <row r="855" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B855" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C855">
+        <v>9.35E-2</v>
+      </c>
+      <c r="D855">
+        <v>0.27200000000000002</v>
+      </c>
+    </row>
+    <row r="856" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B856" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C856">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="D856">
+        <v>3.8E-3</v>
+      </c>
+    </row>
+    <row r="857" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B857" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C857" s="2">
+        <v>5.5389999999999997E-4</v>
+      </c>
+      <c r="D857" s="2">
+        <v>8.2890000000000004E-4</v>
+      </c>
+    </row>
+    <row r="859" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C859" t="s">
+        <v>81</v>
+      </c>
+      <c r="D859" t="s">
+        <v>82</v>
+      </c>
+      <c r="F859" t="s">
+        <v>81</v>
+      </c>
+      <c r="G859" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="860" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A860" s="4">
+        <v>46</v>
+      </c>
+      <c r="B860" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="861" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B861" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C861" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D861" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E861" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F861" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G861" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="862" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B862" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C862">
+        <v>6.3E-2</v>
+      </c>
+      <c r="E862" t="s">
+        <v>197</v>
+      </c>
+      <c r="F862" s="2">
+        <v>1.2850000000000001E-4</v>
+      </c>
+      <c r="G862" s="2">
+        <v>1.131E-4</v>
+      </c>
+    </row>
+    <row r="863" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B863" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C863">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="864" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B864" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C864">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="865" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B865" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C865">
+        <v>9.6</v>
+      </c>
+      <c r="D865">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="866" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B866" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C866">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D866">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="867" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B867" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C867">
+        <v>1</v>
+      </c>
+      <c r="D867">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="868" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B868" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C868">
+        <v>11.180300000000001</v>
+      </c>
+    </row>
+    <row r="869" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B869" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C869" s="2">
+        <v>5.5389999999999997E-4</v>
+      </c>
+      <c r="D869" s="2">
+        <v>8.2890000000000004E-4</v>
+      </c>
+    </row>
+    <row r="870" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B870" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C870">
+        <v>9.35E-2</v>
+      </c>
+      <c r="D870">
+        <v>0.27200000000000002</v>
+      </c>
+    </row>
+    <row r="871" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B871" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C871">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="D871">
+        <v>3.8E-3</v>
+      </c>
+    </row>
+    <row r="872" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B872" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C872" s="2">
+        <v>1.3850000000000001E-4</v>
+      </c>
+      <c r="D872" s="2">
+        <v>2.0719999999999999E-4</v>
+      </c>
+    </row>
+    <row r="874" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C874" t="s">
+        <v>81</v>
+      </c>
+      <c r="D874" t="s">
+        <v>82</v>
+      </c>
+      <c r="F874" t="s">
+        <v>81</v>
+      </c>
+      <c r="G874" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="875" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A875" s="4">
+        <v>47</v>
+      </c>
+      <c r="B875" s="3" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="876" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B876" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C876" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D876" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E876" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F876" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G876" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="877" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B877" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C877">
+        <v>6.3E-2</v>
+      </c>
+      <c r="E877" t="s">
+        <v>226</v>
+      </c>
+      <c r="F877">
+        <v>2.1399999999999999E-2</v>
+      </c>
+      <c r="G877" s="7">
+        <v>1.29E-2</v>
+      </c>
+    </row>
+    <row r="878" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B878" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C878">
+        <v>20</v>
+      </c>
+      <c r="G878" s="2"/>
+    </row>
+    <row r="879" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B879" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C879">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="880" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B880" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C880">
+        <v>9.6</v>
+      </c>
+      <c r="D880">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="881" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B881" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C881">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D881">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="882" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B882" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C882">
+        <v>0</v>
+      </c>
+      <c r="D882">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="883" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B883" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C883">
+        <v>11.180300000000001</v>
+      </c>
+    </row>
+    <row r="884" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B884" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C884" s="7">
+        <v>8.4599999999999995E-2</v>
+      </c>
+      <c r="D884">
+        <v>4.9799999999999997E-2</v>
+      </c>
+    </row>
+    <row r="886" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C886" t="s">
+        <v>81</v>
+      </c>
+      <c r="D886" t="s">
+        <v>82</v>
+      </c>
+      <c r="F886" t="s">
+        <v>81</v>
+      </c>
+      <c r="G886" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="887" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A887" s="4">
+        <v>48</v>
+      </c>
+      <c r="B887" s="3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="888" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B888" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C888" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D888" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E888" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F888" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G888" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="889" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B889" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C889">
+        <v>6.3E-2</v>
+      </c>
+      <c r="E889" t="s">
+        <v>247</v>
+      </c>
+      <c r="F889" s="2">
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="G889" s="2">
+        <v>7.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="890" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B890" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C890">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="891" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B891" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C891">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="892" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B892" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C892">
+        <v>9.6</v>
+      </c>
+      <c r="D892">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="893" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B893" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C893">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D893">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="894" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B894" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C894">
+        <v>1</v>
+      </c>
+      <c r="D894">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="895" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B895" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C895" s="2">
+        <v>5590.2</v>
+      </c>
+    </row>
+    <row r="896" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B896" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C896" s="7">
+        <v>3.1600000000000003E-2</v>
+      </c>
+      <c r="D896">
+        <v>4.7300000000000002E-2</v>
+      </c>
+    </row>
+    <row r="897" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B897" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C897" s="2">
+        <v>1.9E-3</v>
+      </c>
+      <c r="D897" s="2">
+        <v>2.8E-3</v>
+      </c>
+    </row>
+    <row r="898" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B898" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C898" s="8">
+        <v>0</v>
+      </c>
+      <c r="D898" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="900" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C900" t="s">
+        <v>81</v>
+      </c>
+      <c r="D900" t="s">
+        <v>82</v>
+      </c>
+      <c r="F900" t="s">
+        <v>81</v>
+      </c>
+      <c r="G900" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="901" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A901" s="4">
+        <v>49</v>
+      </c>
+      <c r="B901" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="902" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B902" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C902" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D902" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E902" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F902" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G902" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="903" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B903" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C903">
+        <v>6.3E-2</v>
+      </c>
+      <c r="E903" t="s">
+        <v>248</v>
+      </c>
+      <c r="F903" s="2">
+        <v>2.9530000000000002E-4</v>
+      </c>
+      <c r="G903" s="2">
+        <v>4.4200000000000001E-4</v>
+      </c>
+    </row>
+    <row r="904" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B904" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C904">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="905" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B905" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C905">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="906" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B906" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C906">
+        <v>9.6</v>
+      </c>
+      <c r="D906">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="907" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B907" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C907">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D907">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="908" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B908" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C908">
+        <v>1</v>
+      </c>
+      <c r="D908">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="909" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B909" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C909" s="2">
+        <v>5590.2</v>
+      </c>
+    </row>
+    <row r="910" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B910" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C910" s="2">
+        <v>1.9E-3</v>
+      </c>
+      <c r="D910" s="2">
+        <v>2.8E-3</v>
+      </c>
+    </row>
+    <row r="911" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B911" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C911" s="7">
+        <v>3.1600000000000003E-2</v>
+      </c>
+      <c r="D911">
+        <v>4.7300000000000002E-2</v>
+      </c>
+    </row>
+    <row r="912" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B912" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C912" s="8">
+        <v>0</v>
+      </c>
+      <c r="D912" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="914" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C914" t="s">
+        <v>81</v>
+      </c>
+      <c r="D914" t="s">
+        <v>82</v>
+      </c>
+      <c r="F914" t="s">
+        <v>81</v>
+      </c>
+      <c r="G914" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="915" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A915" s="4">
+        <v>50</v>
+      </c>
+      <c r="B915" s="3" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="916" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B916" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C916" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D916" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E916" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F916" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G916" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="917" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B917" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C917">
+        <v>6.3E-2</v>
+      </c>
+      <c r="E917" t="s">
+        <v>249</v>
+      </c>
+      <c r="F917" s="8">
+        <v>0</v>
+      </c>
+      <c r="G917" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="918" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B918" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C918">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="919" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B919" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C919">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="920" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B920" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C920">
+        <v>9.6</v>
+      </c>
+      <c r="D920">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="921" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B921" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C921">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D921">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="922" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B922" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C922">
+        <v>1</v>
+      </c>
+      <c r="D922">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="923" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B923" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C923" s="2">
+        <v>5590.2</v>
+      </c>
+    </row>
+    <row r="924" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B924" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C924" s="8">
+        <v>0</v>
+      </c>
+      <c r="D924" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="925" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B925" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C925" s="7">
+        <v>3.1600000000000003E-2</v>
+      </c>
+      <c r="D925">
+        <v>4.7300000000000002E-2</v>
+      </c>
+    </row>
+    <row r="926" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B926" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C926" s="2">
+        <v>1.9E-3</v>
+      </c>
+      <c r="D926" s="2">
+        <v>2.8E-3</v>
+      </c>
+    </row>
+    <row r="928" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C928" t="s">
+        <v>81</v>
+      </c>
+      <c r="D928" t="s">
+        <v>82</v>
+      </c>
+      <c r="F928" t="s">
+        <v>81</v>
+      </c>
+      <c r="G928" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="929" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A929" s="4">
+        <v>51</v>
+      </c>
+      <c r="B929" s="3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="930" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B930" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C930" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D930" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E930" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F930" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G930" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="931" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B931" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C931">
+        <v>6.3E-2</v>
+      </c>
+      <c r="E931" t="s">
+        <v>273</v>
+      </c>
+      <c r="F931" s="2">
+        <v>2.3E-3</v>
+      </c>
+      <c r="G931" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="932" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B932" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C932">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="933" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B933" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C933">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="934" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B934" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C934">
+        <v>9.6</v>
+      </c>
+      <c r="D934">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="935" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B935" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C935">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D935">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="936" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B936" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C936">
+        <v>0.4516</v>
+      </c>
+      <c r="D936">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="937" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B937" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C937" s="2">
+        <v>5590.2</v>
+      </c>
+    </row>
+    <row r="938" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B938" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C938" s="7">
+        <v>2.35E-2</v>
+      </c>
+      <c r="D938" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="939" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B939" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C939">
+        <v>1.4E-3</v>
+      </c>
+      <c r="D939" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="940" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B940" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C940" s="7">
+        <v>5.5999999999999999E-3</v>
+      </c>
+      <c r="D940" s="7">
+        <v>3.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="941" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B941" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C941">
+        <v>2.46E-2</v>
+      </c>
+      <c r="D941">
+        <v>1.44E-2</v>
+      </c>
+    </row>
+    <row r="943" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C943" t="s">
+        <v>81</v>
+      </c>
+      <c r="D943" t="s">
+        <v>82</v>
+      </c>
+      <c r="F943" t="s">
+        <v>81</v>
+      </c>
+      <c r="G943" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="944" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A944" s="4">
+        <v>52</v>
+      </c>
+      <c r="B944" s="3" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="945" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B945" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C945" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D945" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E945" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F945" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G945" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="946" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B946" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C946">
+        <v>6.3E-2</v>
+      </c>
+      <c r="E946" t="s">
+        <v>274</v>
+      </c>
+      <c r="F946" s="2">
+        <v>1.407E-4</v>
+      </c>
+      <c r="G946" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="947" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B947" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C947">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="948" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B948" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C948">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="949" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B949" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C949">
+        <v>9.6</v>
+      </c>
+      <c r="D949">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="950" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B950" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C950">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D950">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="951" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B951" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C951">
+        <v>0.4516</v>
+      </c>
+      <c r="D951">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="952" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B952" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C952" s="2">
+        <v>5590.2</v>
+      </c>
+    </row>
+    <row r="953" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B953" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C953">
+        <v>1.4E-3</v>
+      </c>
+      <c r="D953" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="954" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B954" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C954" s="7">
+        <v>2.35E-2</v>
+      </c>
+      <c r="D954" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="955" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B955" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C955" s="7">
+        <v>5.5999999999999999E-3</v>
+      </c>
+      <c r="D955" s="7">
+        <v>3.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="956" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B956" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C956">
+        <v>2.46E-2</v>
+      </c>
+      <c r="D956">
+        <v>1.44E-2</v>
+      </c>
+    </row>
+    <row r="958" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C958" t="s">
+        <v>81</v>
+      </c>
+      <c r="D958" t="s">
+        <v>82</v>
+      </c>
+      <c r="F958" t="s">
+        <v>81</v>
+      </c>
+      <c r="G958" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="959" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A959" s="4">
+        <v>53</v>
+      </c>
+      <c r="B959" s="3" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="960" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B960" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C960" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D960" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E960" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F960" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G960" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="961" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B961" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C961">
+        <v>6.3E-2</v>
+      </c>
+      <c r="E961" t="s">
+        <v>275</v>
+      </c>
+      <c r="F961" s="2">
+        <v>5.5960000000000005E-4</v>
+      </c>
+      <c r="G961" s="2">
+        <v>5.8069999999999997E-4</v>
+      </c>
+    </row>
+    <row r="962" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B962" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C962">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="963" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B963" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C963">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="964" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B964" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C964">
+        <v>9.6</v>
+      </c>
+      <c r="D964">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="965" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B965" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C965">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D965">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="966" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B966" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C966">
+        <v>0.4516</v>
+      </c>
+      <c r="D966">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="967" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B967" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C967" s="2">
+        <v>5590.2</v>
+      </c>
+    </row>
+    <row r="968" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B968" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C968" s="7">
+        <v>5.5999999999999999E-3</v>
+      </c>
+      <c r="D968" s="7">
+        <v>3.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="969" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B969" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C969" s="7">
+        <v>2.35E-2</v>
+      </c>
+      <c r="D969" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="970" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B970" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C970">
+        <v>1.4E-3</v>
+      </c>
+      <c r="D970" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="971" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B971" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C971">
+        <v>2.46E-2</v>
+      </c>
+      <c r="D971">
+        <v>1.44E-2</v>
+      </c>
+    </row>
+    <row r="973" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C973" t="s">
+        <v>81</v>
+      </c>
+      <c r="D973" t="s">
+        <v>82</v>
+      </c>
+      <c r="F973" t="s">
+        <v>81</v>
+      </c>
+      <c r="G973" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="974" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A974" s="4">
+        <v>54</v>
+      </c>
+      <c r="B974" s="3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="975" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B975" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C975" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D975" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E975" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F975" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G975" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="976" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B976" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C976">
+        <v>6.3E-2</v>
+      </c>
+      <c r="E976" t="s">
+        <v>278</v>
+      </c>
+      <c r="F976" s="2">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="G976" s="2">
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="977" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B977" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C977">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="978" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B978" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C978">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="979" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B979" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C979">
+        <v>9.6</v>
+      </c>
+      <c r="D979">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="980" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B980" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C980">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D980">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="981" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B981" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C981">
+        <v>0.4516</v>
+      </c>
+      <c r="D981">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="982" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B982" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C982" s="2">
+        <v>5590.2</v>
+      </c>
+    </row>
+    <row r="983" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B983" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C983">
+        <v>2.46E-2</v>
+      </c>
+      <c r="D983">
+        <v>1.44E-2</v>
+      </c>
+    </row>
+    <row r="984" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B984" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C984" s="7">
+        <v>2.35E-2</v>
+      </c>
+      <c r="D984" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="985" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B985" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C985">
+        <v>1.4E-3</v>
+      </c>
+      <c r="D985" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="986" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B986" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C986" s="7">
+        <v>5.5999999999999999E-3</v>
+      </c>
+      <c r="D986" s="7">
+        <v>3.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="988" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C988" t="s">
+        <v>81</v>
+      </c>
+      <c r="D988" t="s">
+        <v>82</v>
+      </c>
+      <c r="F988" t="s">
+        <v>81</v>
+      </c>
+      <c r="G988" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="989" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A989" s="4">
+        <v>55</v>
+      </c>
+      <c r="B989" s="3" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="990" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B990" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C990" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D990" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E990" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F990" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G990" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="991" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B991" t="s">
+        <v>94</v>
+      </c>
+      <c r="C991">
+        <v>0.1139</v>
+      </c>
+      <c r="D991">
+        <v>0.18640000000000001</v>
+      </c>
+      <c r="E991" t="s">
+        <v>94</v>
+      </c>
+      <c r="F991">
+        <v>0.1139</v>
+      </c>
+      <c r="G991">
+        <v>0.18640000000000001</v>
+      </c>
+    </row>
+    <row r="992" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B992" t="s">
+        <v>120</v>
+      </c>
+      <c r="C992">
+        <v>0.1139</v>
+      </c>
+      <c r="D992">
+        <v>0.18640000000000001</v>
+      </c>
+      <c r="E992" t="s">
+        <v>120</v>
+      </c>
+      <c r="F992">
+        <v>0.1139</v>
+      </c>
+      <c r="G992">
+        <v>0.18640000000000001</v>
+      </c>
+    </row>
+    <row r="993" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B993" t="s">
+        <v>146</v>
+      </c>
+      <c r="C993">
+        <v>0.1139</v>
+      </c>
+      <c r="D993">
+        <v>0.18640000000000001</v>
+      </c>
+      <c r="E993" t="s">
+        <v>146</v>
+      </c>
+      <c r="F993">
+        <v>0.1139</v>
+      </c>
+      <c r="G993">
+        <v>0.18640000000000001</v>
+      </c>
+    </row>
+    <row r="994" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B994" t="s">
+        <v>172</v>
+      </c>
+      <c r="C994">
+        <v>2.1700000000000001E-2</v>
+      </c>
+      <c r="D994">
+        <v>3.7100000000000001E-2</v>
+      </c>
+      <c r="E994" t="s">
+        <v>172</v>
+      </c>
+      <c r="F994">
+        <v>2.1700000000000001E-2</v>
+      </c>
+      <c r="G994">
+        <v>3.7100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="995" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B995" t="s">
+        <v>198</v>
+      </c>
+      <c r="C995">
+        <v>2.1700000000000001E-2</v>
+      </c>
+      <c r="D995">
+        <v>3.7100000000000001E-2</v>
+      </c>
+      <c r="E995" t="s">
+        <v>198</v>
+      </c>
+      <c r="F995">
+        <v>2.1700000000000001E-2</v>
+      </c>
+      <c r="G995">
+        <v>3.7100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="996" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B996" t="s">
+        <v>68</v>
+      </c>
+      <c r="C996">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="D996">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="E996" t="s">
+        <v>317</v>
+      </c>
+      <c r="F996">
+        <v>0.26840000000000003</v>
+      </c>
+      <c r="G996">
+        <v>0.2104</v>
+      </c>
+    </row>
+    <row r="997" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B997" t="s">
+        <v>69</v>
+      </c>
+      <c r="C997">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="D997">
+        <v>1.1999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="998" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B998" t="s">
+        <v>70</v>
+      </c>
+      <c r="C998">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="D998">
+        <v>4.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="999" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B999" t="s">
+        <v>71</v>
+      </c>
+      <c r="C999">
+        <v>1.9</v>
+      </c>
+      <c r="D999">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1000" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1000">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="D1000">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1001" t="s">
+        <v>316</v>
+      </c>
+      <c r="C1001">
+        <v>0.17</v>
+      </c>
+      <c r="D1001">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C1003" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1003" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1003" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1003" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1004" s="4">
+        <v>56</v>
+      </c>
+      <c r="B1004" s="3" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1005" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1005" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1005" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1005" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1005" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1005" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1006" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1006">
+        <v>0.1139</v>
+      </c>
+      <c r="D1006">
+        <v>0.18640000000000001</v>
+      </c>
+      <c r="E1006" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1006">
+        <v>0.1139</v>
+      </c>
+      <c r="G1006">
+        <v>0.18640000000000001</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C1008" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1008" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1008" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1008" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1009" s="4">
+        <v>57</v>
+      </c>
+      <c r="B1009" s="3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1010" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1010" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1010" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1010" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1010" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1010" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1011" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1011">
+        <v>0.1139</v>
+      </c>
+      <c r="D1011">
+        <v>0.18640000000000001</v>
+      </c>
+      <c r="E1011" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1011">
+        <v>0.1139</v>
+      </c>
+      <c r="G1011">
+        <v>0.18640000000000001</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C1013" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1013" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1013" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1013" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1014" s="4">
+        <v>58</v>
+      </c>
+      <c r="B1014" s="3" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1015" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1015" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1015" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1015" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1015" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1015" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1016" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1016">
+        <v>0.1139</v>
+      </c>
+      <c r="D1016">
+        <v>0.18640000000000001</v>
+      </c>
+      <c r="E1016" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1016">
+        <v>0.1139</v>
+      </c>
+      <c r="G1016">
+        <v>0.18640000000000001</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C1018" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1018" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1018" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1018" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1019" s="4">
+        <v>59</v>
+      </c>
+      <c r="B1019" s="3" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1020" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1020" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1020" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1020" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1020" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1020" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1021" t="s">
+        <v>172</v>
+      </c>
+      <c r="C1021">
+        <v>2.1700000000000001E-2</v>
+      </c>
+      <c r="D1021">
+        <v>3.7100000000000001E-2</v>
+      </c>
+      <c r="E1021" t="s">
+        <v>175</v>
+      </c>
+      <c r="F1021">
+        <v>2.24E-2</v>
+      </c>
+      <c r="G1021">
+        <v>3.78E-2</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1022" t="s">
+        <v>169</v>
+      </c>
+      <c r="C1022" s="2">
+        <v>5.8909999999999995E-4</v>
+      </c>
+      <c r="D1022" s="2">
+        <v>5.1829999999999997E-4</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1023" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1023" s="2">
+        <v>3.2129999999999999E-5</v>
+      </c>
+      <c r="D1023" s="2">
+        <v>2.8269999999999999E-5</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1024" t="s">
+        <v>171</v>
+      </c>
+      <c r="C1024" s="2">
+        <v>1.2850000000000001E-4</v>
+      </c>
+      <c r="D1024" s="2">
+        <v>1.131E-4</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C1026" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1026" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1026" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1026" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1027" s="4">
+        <v>60</v>
+      </c>
+      <c r="B1027" s="3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1028" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1028" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1028" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1028" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1028" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1028" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1029" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1029">
+        <v>2.1700000000000001E-2</v>
+      </c>
+      <c r="D1029">
+        <v>3.7100000000000001E-2</v>
+      </c>
+      <c r="E1029" t="s">
+        <v>201</v>
+      </c>
+      <c r="F1029">
+        <v>2.24E-2</v>
+      </c>
+      <c r="G1029">
+        <v>3.78E-2</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1030" t="s">
+        <v>195</v>
+      </c>
+      <c r="C1030" s="2">
+        <v>5.8909999999999995E-4</v>
+      </c>
+      <c r="D1030" s="2">
+        <v>5.1829999999999997E-4</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1031" t="s">
+        <v>196</v>
+      </c>
+      <c r="C1031" s="2">
+        <v>3.2129999999999999E-5</v>
+      </c>
+      <c r="D1031" s="2">
+        <v>2.8269999999999999E-5</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1032" t="s">
+        <v>197</v>
+      </c>
+      <c r="C1032" s="2">
+        <v>1.2850000000000001E-4</v>
+      </c>
+      <c r="D1032" s="2">
+        <v>1.131E-4</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C1034" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1034" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1034" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1034" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1035" s="4">
+        <v>61</v>
+      </c>
+      <c r="B1035" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1036" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1036" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1036" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1036" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1036" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1036" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1037" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1037">
+        <v>2.1399999999999999E-2</v>
+      </c>
+      <c r="D1037">
+        <v>1.29E-2</v>
+      </c>
+      <c r="E1037" t="s">
+        <v>227</v>
+      </c>
+      <c r="F1037">
+        <v>2.1399999999999999E-2</v>
+      </c>
+      <c r="G1037">
+        <v>1.29E-2</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C1039" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1039" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1039" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1039" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1040" s="4">
+        <v>62</v>
+      </c>
+      <c r="B1040" s="3" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1041" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1041" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1041" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1041" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1041" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1041" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1042" t="s">
+        <v>247</v>
+      </c>
+      <c r="C1042">
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="D1042">
+        <v>7.4000000000000003E-3</v>
+      </c>
+      <c r="E1042" t="s">
+        <v>253</v>
+      </c>
+      <c r="F1042">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="G1042">
+        <v>7.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1043" t="s">
+        <v>248</v>
+      </c>
+      <c r="C1043" s="2">
+        <v>2.9530000000000002E-4</v>
+      </c>
+      <c r="D1043" s="2">
+        <v>4.4200000000000001E-4</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1044" t="s">
+        <v>249</v>
+      </c>
+      <c r="C1044">
+        <v>0</v>
+      </c>
+      <c r="D1044">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C1046" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1046" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1046" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1046" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1047" s="4">
+        <v>63</v>
+      </c>
+      <c r="B1047" s="3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1048" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1048" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1048" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1048" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1048" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1048" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1049" t="s">
+        <v>273</v>
+      </c>
+      <c r="C1049">
+        <v>2.3E-3</v>
+      </c>
+      <c r="D1049">
+        <v>0</v>
+      </c>
+      <c r="E1049" t="s">
+        <v>279</v>
+      </c>
+      <c r="F1049">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="G1049">
+        <v>3.0999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1050" t="s">
+        <v>274</v>
+      </c>
+      <c r="C1050" s="2">
+        <v>1.407E-4</v>
+      </c>
+      <c r="D1050">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1051" t="s">
+        <v>275</v>
+      </c>
+      <c r="C1051" s="2">
+        <v>5.5960000000000005E-4</v>
+      </c>
+      <c r="D1051" s="2">
+        <v>5.8069999999999997E-4</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1052" t="s">
+        <v>278</v>
+      </c>
+      <c r="C1052">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="D1052">
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C1054" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1054" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1054" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1054" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1055" s="4">
+        <v>64</v>
+      </c>
+      <c r="B1055" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1056" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1056" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1056" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1056" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1056" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1056" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1057" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C1057">
+        <v>6.3E-2</v>
+      </c>
+      <c r="E1057" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1057">
+        <v>0.82420000000000004</v>
+      </c>
+      <c r="G1057">
+        <v>0.9012</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1058" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1058">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1059" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1059">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1060" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1060">
+        <v>0.1139</v>
+      </c>
+      <c r="D1060">
+        <v>0.18640000000000001</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1061" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C1061">
+        <v>9.6</v>
+      </c>
+      <c r="D1061">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1062" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C1062">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D1062">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1063" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1063">
+        <v>1</v>
+      </c>
+      <c r="D1063">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1064" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1064">
+        <v>2.24E-2</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C1066" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1066" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1066" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1066" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1067" s="4">
+        <v>65</v>
+      </c>
+      <c r="B1067" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1068" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1068" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1068" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1068" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1068" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1068" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1069" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C1069">
+        <v>6.3E-2</v>
+      </c>
+      <c r="E1069" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1069">
+        <v>0.82420000000000004</v>
+      </c>
+      <c r="G1069">
+        <v>0.9012</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1070" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1070">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1071" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1071">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1072" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1072">
+        <v>0.1139</v>
+      </c>
+      <c r="D1072">
+        <v>0.18640000000000001</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1073" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C1073">
+        <v>9.6</v>
+      </c>
+      <c r="D1073">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1074" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C1074">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D1074">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1075" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C1075">
+        <v>1</v>
+      </c>
+      <c r="D1075">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1076" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1076">
+        <v>2.24E-2</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1077" s="1"/>
+    </row>
+    <row r="1078" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C1078" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1078" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1078" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1078" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1079" s="4">
+        <v>66</v>
+      </c>
+      <c r="B1079" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1080" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1080" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1080" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1080" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1080" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1080" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1081" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C1081">
+        <v>6.3E-2</v>
+      </c>
+      <c r="E1081" t="s">
+        <v>158</v>
+      </c>
+      <c r="F1081">
+        <v>0.82420000000000004</v>
+      </c>
+      <c r="G1081">
+        <v>0.9012</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1082" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1082">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1083" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1083">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1084" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1084">
+        <v>0.1139</v>
+      </c>
+      <c r="D1084">
+        <v>0.18640000000000001</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1085" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C1085">
+        <v>9.6</v>
+      </c>
+      <c r="D1085">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1086" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C1086">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D1086">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1087" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1087">
+        <v>1</v>
+      </c>
+      <c r="D1087">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1088" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1088">
+        <v>2.24E-2</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1089" s="1"/>
+    </row>
+    <row r="1090" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C1090" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1090" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1090" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1090" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1091" s="4">
+        <v>67</v>
+      </c>
+      <c r="B1091" s="3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1092" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1092" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1092" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1092" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1092" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1092" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1093" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C1093">
+        <v>6.3E-2</v>
+      </c>
+      <c r="E1093" t="s">
+        <v>184</v>
+      </c>
+      <c r="F1093">
+        <v>0.76790000000000003</v>
+      </c>
+      <c r="G1093">
+        <v>0.86360000000000003</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1094" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1094">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1095" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1095">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1096" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C1096">
+        <v>0.1139</v>
+      </c>
+      <c r="D1096">
+        <v>0.18640000000000001</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1097" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C1097">
+        <v>9.6</v>
+      </c>
+      <c r="D1097">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1098" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C1098">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D1098">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1099" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1099">
+        <v>1</v>
+      </c>
+      <c r="D1099">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1100" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1100">
+        <v>11.180300000000001</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C1102" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1102" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1102" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1102" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1103" s="4">
+        <v>68</v>
+      </c>
+      <c r="B1103" s="3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1104" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1104" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1104" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1104" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1104" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1104" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1105" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C1105">
+        <v>6.3E-2</v>
+      </c>
+      <c r="E1105" t="s">
+        <v>210</v>
+      </c>
+      <c r="F1105">
+        <v>0.76790000000000003</v>
+      </c>
+      <c r="G1105">
+        <v>0.86360000000000003</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1106" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1106">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1107" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1107">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1108" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1108">
+        <v>0.1139</v>
+      </c>
+      <c r="D1108">
+        <v>0.18640000000000001</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1109" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C1109">
+        <v>9.6</v>
+      </c>
+      <c r="D1109">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1110" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C1110">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D1110">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1111" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C1111">
+        <v>1</v>
+      </c>
+      <c r="D1111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1112" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1112">
+        <v>11.180300000000001</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1113" s="1"/>
+    </row>
+    <row r="1114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C1114" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1114" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1114" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1114" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1115" s="4">
+        <v>69</v>
+      </c>
+      <c r="B1115" s="3" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1116" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1116" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1116" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1116" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1116" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1116" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1117" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C1117">
+        <v>6.3E-2</v>
+      </c>
+      <c r="E1117" t="s">
+        <v>236</v>
+      </c>
+      <c r="F1117">
+        <v>0.74680000000000002</v>
+      </c>
+      <c r="G1117">
+        <v>0.74070000000000003</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1118" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1118">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1119" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1119">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1120" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C1120">
+        <v>0.1139</v>
+      </c>
+      <c r="D1120">
+        <v>0.18640000000000001</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1121" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C1121">
+        <v>9.6</v>
+      </c>
+      <c r="D1121">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1122" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C1122">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D1122">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1123" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C1123">
+        <v>0</v>
+      </c>
+      <c r="D1123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1124" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1124">
+        <v>11.180300000000001</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C1126" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1126" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1126" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1126" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1127" s="4">
+        <v>70</v>
+      </c>
+      <c r="B1127" s="3" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1128" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1128" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1128" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1128" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1128" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1128" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1129" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C1129">
+        <v>6.3E-2</v>
+      </c>
+      <c r="E1129" t="s">
+        <v>262</v>
+      </c>
+      <c r="F1129">
+        <v>0.84440000000000004</v>
+      </c>
+      <c r="G1129">
+        <v>0.84440000000000004</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1130" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1130">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1131" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1131">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1132" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C1132">
+        <v>0.1139</v>
+      </c>
+      <c r="D1132">
+        <v>0.18640000000000001</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1133" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C1133">
+        <v>9.6</v>
+      </c>
+      <c r="D1133">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1134" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C1134">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D1134">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1135" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C1135">
+        <v>1</v>
+      </c>
+      <c r="D1135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1136" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1136" s="2">
+        <v>5590.2</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1137" s="1"/>
+    </row>
+    <row r="1138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C1138" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1138" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1138" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1138" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1139" s="4">
+        <v>71</v>
+      </c>
+      <c r="B1139" s="3" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1140" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1140" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1140" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1140" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1140" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1140" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1141" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C1141">
+        <v>6.3E-2</v>
+      </c>
+      <c r="E1141" t="s">
+        <v>288</v>
+      </c>
+      <c r="F1141">
+        <v>0.90010000000000001</v>
+      </c>
+      <c r="G1141">
+        <v>0.82799999999999996</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1142" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1142">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1143" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1143">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1144" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C1144">
+        <v>0.1139</v>
+      </c>
+      <c r="D1144">
+        <v>0.18640000000000001</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1145" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C1145">
+        <v>9.6</v>
+      </c>
+      <c r="D1145">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1146" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C1146">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D1146">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1147" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C1147">
+        <v>0.4516</v>
+      </c>
+      <c r="D1147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1148" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1148" s="2">
+        <v>5590.2</v>
       </c>
     </row>
   </sheetData>

--- a/docs/fesity_check_table.xlsx
+++ b/docs/fesity_check_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cpetrik/Dropbox/Princeton/FEISTY/CODE/fish-offline/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9EE8E14-9556-CB40-884B-F3F52EAFDA60}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1352F0-6221-DD4B-A770-6FF3B4C2700F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1580" yWindow="460" windowWidth="15740" windowHeight="17540" xr2:uid="{75A10E79-64A5-084D-ADB9-F0FE4D64B0E0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1751" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2787" uniqueCount="457">
   <si>
     <t>param = make_parameters_1meso()</t>
   </si>
@@ -1207,6 +1207,195 @@
   </si>
   <si>
     <t>Ld.clev = sub_clev(param,Ld.I,ENVR.Tp,ENVR.Tb,Ld.td,param.L_l)</t>
+  </si>
+  <si>
+    <t>Sf.die = Mp.con_f.*Mp.bio + Mf.con_f.*Mf.bio</t>
+  </si>
+  <si>
+    <t>Sp.die = Mp.con_p.*Mp.bio + Mf.con_p.*Mf.bio</t>
+  </si>
+  <si>
+    <t>Sd.die = Mp.con_d.*Mp.bio + Mf.con_d.*Mf.bio</t>
+  </si>
+  <si>
+    <t>Mf.die = Lp.con_f.*Lp.bio + Ld.con_f.*Ld.bio</t>
+  </si>
+  <si>
+    <t>Mp.die = Lp.con_p.*Lp.bio + Ld.con_p.*Ld.bio</t>
+  </si>
+  <si>
+    <t>Md.die = Lp.con_d.*Lp.bio + Ld.con_d.*Ld.bio</t>
+  </si>
+  <si>
+    <t>Sf.pred = Sf.die ./ Sf.bio</t>
+  </si>
+  <si>
+    <t>Sp.pred = Sp.die ./ Sp.bio</t>
+  </si>
+  <si>
+    <t>Sd.pred = Sd.die ./ Sd.bio</t>
+  </si>
+  <si>
+    <t>Mf.pred = Mf.die ./ Mf.bio</t>
+  </si>
+  <si>
+    <t>Mp.pred = Mp.die ./ Mp.bio</t>
+  </si>
+  <si>
+    <t>Md.pred = Md.die ./ Md.bio</t>
+  </si>
+  <si>
+    <t>Sf.nmort = sub_nmort(param,ENVR.Tp,ENVR.Tb,Sf.td,param.M_s)</t>
+  </si>
+  <si>
+    <t>param.Nat_mrt</t>
+  </si>
+  <si>
+    <t>[Sf.nu, Sf.prod] = sub_nu(param,Sf.I,Sf.bio,Sf.met)</t>
+  </si>
+  <si>
+    <t>Sp.nmort = sub_nmort(param,ENVR.Tp,ENVR.Tb,Sp.td,param.M_s)</t>
+  </si>
+  <si>
+    <t>Sd.nmort = sub_nmort(param,ENVR.Tp,ENVR.Tb,Sd.td,param.M_s)</t>
+  </si>
+  <si>
+    <t>Mf.nmort = sub_nmort(param,ENVR.Tp,ENVR.Tb,Mf.td,param.M_m)</t>
+  </si>
+  <si>
+    <t>Mp.nmort = sub_nmort(param,ENVR.Tp,ENVR.Tb,Mp.td,param.M_m)</t>
+  </si>
+  <si>
+    <t>Md.nmort = sub_nmort(param,ENVR.Tp,ENVR.Tb,Md.td,param.M_m)</t>
+  </si>
+  <si>
+    <t>Lp.nmort = sub_nmort(param,ENVR.Tp,ENVR.Tb,Lp.td,param.M_l)</t>
+  </si>
+  <si>
+    <t>Ld.nmort = sub_nmort(param,ENVR.Tp,ENVR.Tb,Ld.td,param.M_l)</t>
+  </si>
+  <si>
+    <t>[Sp.nu, Sp.prod] = sub_nu(param,Sp.I,Sp.bio,Sp.met)</t>
+  </si>
+  <si>
+    <t>[Sd.nu, Sd.prod] = sub_nu(param,Sd.I,Sd.bio,Sd.met)</t>
+  </si>
+  <si>
+    <t>[Mf.nu, Mf.prod] = sub_nu(param,Mf.I,Mf.bio,Mf.met)</t>
+  </si>
+  <si>
+    <t>[Mp.nu, Mp.prod] = sub_nu(param,Mp.I,Mp.bio,Mp.met)</t>
+  </si>
+  <si>
+    <t>[Md.nu, Md.prod] = sub_nu(param,Md.I,Md.bio,Md.met)</t>
+  </si>
+  <si>
+    <t>[Lp.nu, Lp.prod] = sub_nu(param,Lp.I,Lp.bio,Lp.met)</t>
+  </si>
+  <si>
+    <t>[Ld.nu, Ld.prod] = sub_nu(param,Ld.I,Ld.bio,Ld.met)</t>
+  </si>
+  <si>
+    <t>Sf.gamma = sub_gamma(param.K_l,param.Z_s,Sf.nu,Sf.die,Sf.bio,Sf.nmort,param.dfrate,0)</t>
+  </si>
+  <si>
+    <t>param.Ssel</t>
+  </si>
+  <si>
+    <t>Ld.gamma = sub_gamma(param.K_a,param.Z_l,Ld.nu,Ld.die,Ld.bio,Ld.nmort,param.dfrate,param.LDsel)</t>
+  </si>
+  <si>
+    <t>Lp.gamma = sub_gamma(param.K_a,param.Z_l,Lp.nu,Lp.die,Lp.bio,Lp.nmort,param.dfrate,param.LPsel)</t>
+  </si>
+  <si>
+    <t>Md.gamma = sub_gamma(param.K_j,param.Z_m,Md.nu,Md.die,Md.bio,Md.nmort,param.dfrate,param.MDsel)</t>
+  </si>
+  <si>
+    <t>Mp.gamma = sub_gamma(param.K_j,param.Z_m,Mp.nu,Mp.die,Mp.bio,Mp.nmort,param.dfrate,param.MPsel)</t>
+  </si>
+  <si>
+    <t>Mf.gamma = sub_gamma(param.K_a,param.Z_m,Mf.nu,Mf.die,Mf.bio,Mf.nmort,param.dfrate,param.MFsel)</t>
+  </si>
+  <si>
+    <t>Sd.gamma = sub_gamma(param.K_l,param.Z_s,Sd.nu,Sd.die,Sd.bio,Sd.nmort,param.dfrate,0)</t>
+  </si>
+  <si>
+    <t>Sp.gamma = sub_gamma(param.K_l,param.Z_s,Sp.nu,Sp.die,Sp.bio,Sp.nmort,param.dfrate,0)</t>
+  </si>
+  <si>
+    <t>[Mf.gamma,Mf.nu,Mf.rep] = sub_rep(param.NX,Mf.gamma,Mf.nu,param.K_a)</t>
+  </si>
+  <si>
+    <t>[Lp.gamma,Lp.nu,Lp.rep] = sub_rep(param.NX,Lp.gamma,Lp.nu,param.K_a)</t>
+  </si>
+  <si>
+    <t>[Ld.gamma,Ld.nu,Ld.rep] = sub_rep(param.NX,Ld.gamma,Ld.nu,param.K_a)</t>
+  </si>
+  <si>
+    <t>Sf.rec = sub_rec_larv(Mf.rep,Mf.bio,param.rfrac)</t>
+  </si>
+  <si>
+    <t>Sp.rec = sub_rec_larv(Mp.rep,Mp.bio,param.rfrac)</t>
+  </si>
+  <si>
+    <t>Sd.rec = sub_rec_larv(Md.rep,Md.bio,param.rfrac)</t>
+  </si>
+  <si>
+    <t>Mf.rec = sub_rec(Sf.gamma,Sf.bio)</t>
+  </si>
+  <si>
+    <t>Mp.rec = sub_rec(Sp.gamma,Sp.bio)</t>
+  </si>
+  <si>
+    <t>Md.rec = sub_rec(Sd.gamma,Sd.bio)</t>
+  </si>
+  <si>
+    <t>Lp.rec = sub_rec(Mp.gamma,Mp.bio)</t>
+  </si>
+  <si>
+    <t>Ld.rec = sub_rec(Md.gamma,Md.bio)</t>
+  </si>
+  <si>
+    <t>Sf.bio = sub_update_fi(Sf.bio,Sf.rec,Sf.nu,Sf.rep,Sf.gamma,Sf.die,Sf.nmort)</t>
+  </si>
+  <si>
+    <t>Sp.bio = sub_update_fi(Sp.bio,Sp.rec,Sp.nu,Sp.rep,Sp.gamma,Sp.die,Sp.nmort)</t>
+  </si>
+  <si>
+    <t>Sd.bio = sub_update_fi(Sd.bio,Sd.rec,Sd.nu,Sd.rep,Sd.gamma,Sd.die,Sd.nmort)</t>
+  </si>
+  <si>
+    <t>Mf.bio = sub_update_fi(Mf.bio,Mf.rec,Mf.nu,Mf.rep,Mf.gamma,Mf.die,Mf.nmort)</t>
+  </si>
+  <si>
+    <t>Mp.bio = sub_update_fi(Mp.bio,Mp.rec,Mp.nu,Mp.rep,Mp.gamma,Mp.die,Mp.nmort)</t>
+  </si>
+  <si>
+    <t>Md.bio = sub_update_fi(Md.bio,Md.rec,Md.nu,Md.rep,Md.gamma,Md.die,Md.nmort)</t>
+  </si>
+  <si>
+    <t>Lp.bio = sub_update_fi(Lp.bio,Lp.rec,Lp.nu,Lp.rep,Lp.gamma,Lp.die,Lp.nmort)</t>
+  </si>
+  <si>
+    <t>Ld.bio = sub_update_fi(Ld.bio,Ld.rec,Ld.nu,Ld.rep,Ld.gamma,Ld.die,Ld.nmort)</t>
+  </si>
+  <si>
+    <t>[Mf.bio, Mf.caught, Mf.fmort] = sub_fishing_rate(Mf.bio,param.dfrate,param.MFsel)</t>
+  </si>
+  <si>
+    <t>[Mp.bio, Mp.caught, Mp.fmort] = sub_fishing_rate(Mp.bio,param.dfrate,param.MPsel)</t>
+  </si>
+  <si>
+    <t>[Md.bio, Md.caught, Md.fmort] = sub_fishing_rate(Md.bio,param.dfrate,param.MDsel)</t>
+  </si>
+  <si>
+    <t>[Ld.bio, Ld.caught, Ld.fmort] = sub_fishing_rate(Ld.bio,param.dfrate,param.LDsel)</t>
+  </si>
+  <si>
+    <t>[Lp.bio, Lp.caught, Lp.fLort] = sub_fishing_rate(Lp.bio,param.dfrate,param.LPsel)</t>
+  </si>
+  <si>
+    <t>CHECK TABLE</t>
   </si>
 </sst>
 </file>
@@ -1216,7 +1405,7 @@
   <numFmts count="1">
     <numFmt numFmtId="171" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1245,6 +1434,13 @@
       <name val="Helvetica"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1266,7 +1462,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1276,6 +1472,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1590,10 +1788,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05544419-54E0-4341-8244-0AE65D17B22B}">
-  <dimension ref="A3:G1148"/>
+  <dimension ref="A1:G1678"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1115" workbookViewId="0">
-      <selection activeCell="A1140" sqref="A1140"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1603,6 +1801,11 @@
     <col min="4" max="4" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>456</v>
+      </c>
+    </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>1</v>
@@ -2095,6 +2298,9 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="B63" s="4" t="s">
         <v>65</v>
       </c>
@@ -14021,6 +14227,6133 @@
         <v>5590.2</v>
       </c>
     </row>
+    <row r="1150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C1150" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1150" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1150" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1150" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1151" s="4">
+        <v>72</v>
+      </c>
+      <c r="B1151" s="3" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1152" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1152" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1152" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1152" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1152" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1152" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1153" t="s">
+        <v>195</v>
+      </c>
+      <c r="C1153" s="2">
+        <v>5.8909999999999995E-4</v>
+      </c>
+      <c r="D1153" s="2">
+        <v>5.1829999999999997E-4</v>
+      </c>
+      <c r="E1153" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1153">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="G1153">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1154" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1154">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="D1154">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1155" t="s">
+        <v>169</v>
+      </c>
+      <c r="C1155" s="2">
+        <v>5.8909999999999995E-4</v>
+      </c>
+      <c r="D1155" s="2">
+        <v>5.1829999999999997E-4</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1156" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1156">
+        <v>1.9</v>
+      </c>
+      <c r="D1156">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C1158" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1158" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1158" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1158" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1159" s="4">
+        <v>73</v>
+      </c>
+      <c r="B1159" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1160" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1160" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1160" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1160" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1160" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1160" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1161" t="s">
+        <v>196</v>
+      </c>
+      <c r="C1161" s="2">
+        <v>3.213E-4</v>
+      </c>
+      <c r="D1161" s="2">
+        <v>2.8269999999999999E-4</v>
+      </c>
+      <c r="E1161" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1161" s="2">
+        <v>6.2879999999999994E-5</v>
+      </c>
+      <c r="G1161" s="2">
+        <v>5.533E-5</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1162" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1162">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="D1162">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1163" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1163" s="2">
+        <v>3.213E-4</v>
+      </c>
+      <c r="D1163" s="2">
+        <v>2.8269999999999999E-4</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1164" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1164">
+        <v>1.9</v>
+      </c>
+      <c r="D1164">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C1166" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1166" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1166" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1166" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1167" s="4">
+        <v>74</v>
+      </c>
+      <c r="B1167" s="3" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1168" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1168" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1168" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1168" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1168" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1168" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1169" t="s">
+        <v>197</v>
+      </c>
+      <c r="C1169" s="2">
+        <v>1.2850000000000001E-4</v>
+      </c>
+      <c r="D1169" s="2">
+        <v>1.131E-4</v>
+      </c>
+      <c r="E1169" t="s">
+        <v>150</v>
+      </c>
+      <c r="F1169" s="2">
+        <v>2.5149999999999999E-4</v>
+      </c>
+      <c r="G1169" s="2">
+        <v>2.5129999999999998E-4</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1170" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1170">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="D1170">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1171" t="s">
+        <v>171</v>
+      </c>
+      <c r="C1171" s="2">
+        <v>1.2850000000000001E-4</v>
+      </c>
+      <c r="D1171" s="2">
+        <v>1.131E-4</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1172" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1172">
+        <v>1.9</v>
+      </c>
+      <c r="D1172">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C1174" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1174" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1174" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1174" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1175" s="4">
+        <v>75</v>
+      </c>
+      <c r="B1175" s="3" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1176" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1176" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1176" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1176" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1176" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1176" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1177" t="s">
+        <v>247</v>
+      </c>
+      <c r="C1177">
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="D1177">
+        <v>7.4000000000000003E-3</v>
+      </c>
+      <c r="E1177" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1177">
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="G1177">
+        <v>4.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1178" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1178">
+        <v>0.66</v>
+      </c>
+      <c r="D1178">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1179" t="s">
+        <v>273</v>
+      </c>
+      <c r="C1179">
+        <v>2.3E-3</v>
+      </c>
+      <c r="D1179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1180" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1180">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D1180">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C1182" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1182" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1182" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1182" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1183" s="4">
+        <v>76</v>
+      </c>
+      <c r="B1183" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1184" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1184" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1184" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1184" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1184" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1184" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1185" t="s">
+        <v>248</v>
+      </c>
+      <c r="C1185" s="2">
+        <v>2.9530000000000002E-4</v>
+      </c>
+      <c r="D1185" s="2">
+        <v>4.4200000000000001E-4</v>
+      </c>
+      <c r="E1185" t="s">
+        <v>202</v>
+      </c>
+      <c r="F1185" s="2">
+        <v>3.4969999999999999E-4</v>
+      </c>
+      <c r="G1185" s="2">
+        <v>2.9169999999999999E-4</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1186" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1186">
+        <v>0.66</v>
+      </c>
+      <c r="D1186">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1187" t="s">
+        <v>274</v>
+      </c>
+      <c r="C1187" s="2">
+        <v>1.407E-4</v>
+      </c>
+      <c r="D1187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1188" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1188">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D1188">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C1190" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1190" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1190" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1190" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1191" s="4">
+        <v>77</v>
+      </c>
+      <c r="B1191" s="3" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1192" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1192" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1192" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1192" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1192" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1192" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1193" t="s">
+        <v>249</v>
+      </c>
+      <c r="C1193">
+        <v>0</v>
+      </c>
+      <c r="D1193">
+        <v>0</v>
+      </c>
+      <c r="E1193" t="s">
+        <v>228</v>
+      </c>
+      <c r="F1193" s="2">
+        <v>6.156E-4</v>
+      </c>
+      <c r="G1193" s="2">
+        <v>6.3880000000000002E-4</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1194" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1194">
+        <v>0.66</v>
+      </c>
+      <c r="D1194">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1195" t="s">
+        <v>275</v>
+      </c>
+      <c r="C1195" s="2">
+        <v>5.5960000000000005E-4</v>
+      </c>
+      <c r="D1195" s="2">
+        <v>5.8069999999999997E-4</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1196" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1196">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D1196">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C1198" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1198" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1198" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1198" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1199" s="4">
+        <v>78</v>
+      </c>
+      <c r="B1199" s="3" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1200" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1200" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1200" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1200" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1200" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1200" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1201" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1201">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="D1201">
+        <v>1E-3</v>
+      </c>
+      <c r="E1201" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1201" s="6">
+        <v>5.2400000000000002E-2</v>
+      </c>
+      <c r="G1201">
+        <v>4.6100000000000002E-2</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1202" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1202">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="D1202">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C1204" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1204" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1204" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1204" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1205" s="4">
+        <v>79</v>
+      </c>
+      <c r="B1205" s="3" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1206" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1206" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1206" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1206" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1206" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1206" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1207" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1207" s="2">
+        <v>6.2879999999999994E-5</v>
+      </c>
+      <c r="D1207" s="2">
+        <v>5.533E-5</v>
+      </c>
+      <c r="E1207" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1207" s="6">
+        <v>5.2400000000000002E-2</v>
+      </c>
+      <c r="G1207">
+        <v>4.6100000000000002E-2</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1208" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1208">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="D1208">
+        <v>1.1999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C1210" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1210" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1210" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1210" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1211" s="4">
+        <v>80</v>
+      </c>
+      <c r="B1211" s="3" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1212" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1212" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1212" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1212" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1212" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1212" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1213" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1213" s="2">
+        <v>2.5149999999999999E-4</v>
+      </c>
+      <c r="D1213" s="2">
+        <v>2.5129999999999998E-4</v>
+      </c>
+      <c r="E1213" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F1213" s="6">
+        <v>5.2400000000000002E-2</v>
+      </c>
+      <c r="G1213">
+        <v>4.6100000000000002E-2</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1214" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1214">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="D1214">
+        <v>4.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C1216" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1216" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1216" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1216" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1217" s="4">
+        <v>81</v>
+      </c>
+      <c r="B1217" s="3" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1218" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1218" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1218" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1218" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1218" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1218" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1219" t="s">
+        <v>176</v>
+      </c>
+      <c r="C1219">
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="D1219">
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="E1219" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="F1219" s="6">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="G1219">
+        <v>2.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1220" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1220">
+        <v>1.9</v>
+      </c>
+      <c r="D1220">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C1222" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1222" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1222" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1222" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1223" s="4">
+        <v>82</v>
+      </c>
+      <c r="B1223" s="3" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1224" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1224" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1224" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1224" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1224" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1224" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1225" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1225" s="2">
+        <v>3.4969999999999999E-4</v>
+      </c>
+      <c r="D1225" s="2">
+        <v>2.9169999999999999E-4</v>
+      </c>
+      <c r="E1225" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="F1225" s="6">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="G1225">
+        <v>5.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1226" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1226">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="D1226">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C1228" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1228" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1228" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1228" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1229" s="4">
+        <v>83</v>
+      </c>
+      <c r="B1229" s="3" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1230" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1230" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1230" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1230" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1230" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1230" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1231" t="s">
+        <v>228</v>
+      </c>
+      <c r="C1231" s="2">
+        <v>6.156E-4</v>
+      </c>
+      <c r="D1231" s="2">
+        <v>6.3880000000000002E-4</v>
+      </c>
+      <c r="E1231" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="F1231" s="6">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="G1231">
+        <v>3.8E-3</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1232" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1232">
+        <v>0.17</v>
+      </c>
+      <c r="D1232">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C1234" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1234" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1234" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1234" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1235" s="4">
+        <v>84</v>
+      </c>
+      <c r="B1235" s="3" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1236" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1236" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1236" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1236" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1236" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1236" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1237" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1237">
+        <v>1</v>
+      </c>
+      <c r="E1237" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1237" s="2">
+        <v>2.7397000000000001E-4</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1238" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C1238" s="2">
+        <v>2.7397000000000001E-4</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1239" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C1239">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1240" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C1240">
+        <v>9.6</v>
+      </c>
+      <c r="D1240">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1241" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C1241">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D1241">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1242" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1242">
+        <v>1</v>
+      </c>
+      <c r="D1242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1243" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1243">
+        <v>2.24E-2</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C1245" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1245" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1245" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1245" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1246" s="4">
+        <v>85</v>
+      </c>
+      <c r="B1246" s="3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1247" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1247" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1247" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1247" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1247" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1247" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1248" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1248">
+        <v>1</v>
+      </c>
+      <c r="E1248" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1248" s="2">
+        <v>2.7397000000000001E-4</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1249" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C1249" s="2">
+        <v>2.7397000000000001E-4</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1250" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C1250">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1251" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C1251">
+        <v>9.6</v>
+      </c>
+      <c r="D1251">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1252" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C1252">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D1252">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1253" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C1253">
+        <v>1</v>
+      </c>
+      <c r="D1253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1254" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1254">
+        <v>2.24E-2</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C1256" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1256" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1256" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1256" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1257" s="4">
+        <v>86</v>
+      </c>
+      <c r="B1257" s="3" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1258" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1258" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1258" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1258" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1258" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1258" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1259" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1259">
+        <v>1</v>
+      </c>
+      <c r="E1259" t="s">
+        <v>152</v>
+      </c>
+      <c r="F1259" s="2">
+        <v>2.7397000000000001E-4</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1260" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C1260" s="2">
+        <v>2.7397000000000001E-4</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1261" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C1261">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1262" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C1262">
+        <v>9.6</v>
+      </c>
+      <c r="D1262">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1263" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C1263">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D1263">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1264" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1264">
+        <v>1</v>
+      </c>
+      <c r="D1264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1265" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1265">
+        <v>11.180300000000001</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C1267" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1267" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1267" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1267" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1268" s="4">
+        <v>87</v>
+      </c>
+      <c r="B1268" s="3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1269" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1269" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1269" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1269" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1269" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1269" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1270" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1270">
+        <v>1</v>
+      </c>
+      <c r="E1270" t="s">
+        <v>178</v>
+      </c>
+      <c r="F1270" s="2">
+        <v>2.7397000000000001E-4</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1271" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C1271" s="2">
+        <v>2.7397000000000001E-4</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1272" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C1272">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1273" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C1273">
+        <v>9.6</v>
+      </c>
+      <c r="D1273">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1274" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C1274">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D1274">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1275" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1275">
+        <v>1</v>
+      </c>
+      <c r="D1275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1276" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1276">
+        <v>11.180300000000001</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C1278" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1278" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1278" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1278" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1279" s="4">
+        <v>88</v>
+      </c>
+      <c r="B1279" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1280" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1280" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1280" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1280" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1280" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1280" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1281" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1281">
+        <v>1</v>
+      </c>
+      <c r="E1281" t="s">
+        <v>204</v>
+      </c>
+      <c r="F1281" s="2">
+        <v>2.7397000000000001E-4</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1282" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C1282" s="2">
+        <v>2.7397000000000001E-4</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1283" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C1283">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1284" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C1284">
+        <v>9.6</v>
+      </c>
+      <c r="D1284">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1285" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C1285">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D1285">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1286" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C1286" s="9">
+        <v>1</v>
+      </c>
+      <c r="D1286" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1287" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1287">
+        <v>11.180300000000001</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C1289" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1289" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1289" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1289" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1290" s="4">
+        <v>89</v>
+      </c>
+      <c r="B1290" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1291" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1291" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1291" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1291" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1291" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1291" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1292" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1292">
+        <v>1</v>
+      </c>
+      <c r="E1292" t="s">
+        <v>230</v>
+      </c>
+      <c r="F1292" s="2">
+        <v>2.7397000000000001E-4</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1293" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C1293" s="2">
+        <v>2.7397000000000001E-4</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1294" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C1294">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1295" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C1295">
+        <v>9.6</v>
+      </c>
+      <c r="D1295">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1296" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C1296">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D1296">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1297" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C1297">
+        <v>0</v>
+      </c>
+      <c r="D1297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1298" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C1300" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1300" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1300" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1300" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1301" s="4">
+        <v>90</v>
+      </c>
+      <c r="B1301" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1302" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1302" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1302" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1302" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1302" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1302" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1303" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1303">
+        <v>1</v>
+      </c>
+      <c r="E1303" t="s">
+        <v>256</v>
+      </c>
+      <c r="F1303" s="2">
+        <v>2.7397000000000001E-4</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1304" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C1304" s="2">
+        <v>2.7397000000000001E-4</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1305" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C1305">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1306" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C1306">
+        <v>9.6</v>
+      </c>
+      <c r="D1306">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1307" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C1307">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D1307">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1308" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C1308">
+        <v>1</v>
+      </c>
+      <c r="D1308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1309" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1309" s="2">
+        <v>5590.2</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C1311" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1311" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1311" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1311" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1312" s="4">
+        <v>91</v>
+      </c>
+      <c r="B1312" s="3" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1313" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1313" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1313" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1313" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1313" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1313" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1314" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1314">
+        <v>1</v>
+      </c>
+      <c r="E1314" t="s">
+        <v>282</v>
+      </c>
+      <c r="F1314" s="2">
+        <v>2.7397000000000001E-4</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1315" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C1315" s="2">
+        <v>2.7397000000000001E-4</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1316" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C1316">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1317" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C1317">
+        <v>9.6</v>
+      </c>
+      <c r="D1317">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1318" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C1318">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D1318">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1319" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C1319">
+        <v>0.4516</v>
+      </c>
+      <c r="D1319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1320" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1320" s="2">
+        <v>5590.2</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C1322" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1322" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1322" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1322" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1323" s="4">
+        <v>92</v>
+      </c>
+      <c r="B1323" s="3" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1324" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1324" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1324" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1324" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1324" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1324" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1325" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1325">
+        <v>0.7</v>
+      </c>
+      <c r="E1325" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1325">
+        <v>5.91E-2</v>
+      </c>
+      <c r="G1325">
+        <v>9.4799999999999995E-2</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1326" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1326">
+        <v>0.1139</v>
+      </c>
+      <c r="D1326">
+        <v>0.18640000000000001</v>
+      </c>
+      <c r="E1326" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1326">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="G1326">
+        <v>2.0999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1327" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1327">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="D1327">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1328" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1328">
+        <v>2.06E-2</v>
+      </c>
+      <c r="D1328">
+        <v>3.56E-2</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C1330" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1330" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1330" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1330" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1331" s="4">
+        <v>93</v>
+      </c>
+      <c r="B1331" s="3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1332" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1332" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1332" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1332" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1332" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1332" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1333" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1333">
+        <v>0.7</v>
+      </c>
+      <c r="E1333" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1333">
+        <v>5.91E-2</v>
+      </c>
+      <c r="G1333">
+        <v>9.4799999999999995E-2</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1334" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1334">
+        <v>0.1139</v>
+      </c>
+      <c r="D1334">
+        <v>0.18640000000000001</v>
+      </c>
+      <c r="E1334" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1334" s="2">
+        <v>7.0900000000000002E-5</v>
+      </c>
+      <c r="G1334" s="2">
+        <v>1.138E-4</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1335" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1335">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="D1335">
+        <v>1.1999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1336" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1336">
+        <v>2.06E-2</v>
+      </c>
+      <c r="D1336">
+        <v>3.56E-2</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C1338" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1338" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1338" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1338" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1339" s="4">
+        <v>94</v>
+      </c>
+      <c r="B1339" s="3" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1340" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1340" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1340" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1340" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1340" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1340" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1341" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1341">
+        <v>0.7</v>
+      </c>
+      <c r="E1341" t="s">
+        <v>154</v>
+      </c>
+      <c r="F1341">
+        <v>5.91E-2</v>
+      </c>
+      <c r="G1341">
+        <v>9.4799999999999995E-2</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1342" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1342">
+        <v>0.1139</v>
+      </c>
+      <c r="D1342">
+        <v>0.18640000000000001</v>
+      </c>
+      <c r="E1342" t="s">
+        <v>153</v>
+      </c>
+      <c r="F1342" s="2">
+        <v>2.8380000000000001E-4</v>
+      </c>
+      <c r="G1342" s="2">
+        <v>4.5530000000000001E-4</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1343" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1343">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="D1343">
+        <v>4.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1344" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1344">
+        <v>2.06E-2</v>
+      </c>
+      <c r="D1344">
+        <v>3.56E-2</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C1346" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1346" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1346" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1346" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1347" s="4">
+        <v>95</v>
+      </c>
+      <c r="B1347" s="3" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1348" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1348" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1348" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1348" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1348" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1348" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1349" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1349">
+        <v>0.7</v>
+      </c>
+      <c r="E1349" t="s">
+        <v>180</v>
+      </c>
+      <c r="F1349">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="G1349">
+        <v>1.44E-2</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1350" t="s">
+        <v>175</v>
+      </c>
+      <c r="C1350">
+        <v>2.24E-2</v>
+      </c>
+      <c r="D1350">
+        <v>3.78E-2</v>
+      </c>
+      <c r="E1350" t="s">
+        <v>179</v>
+      </c>
+      <c r="F1350">
+        <v>1.67E-2</v>
+      </c>
+      <c r="G1350">
+        <v>2.7400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1351" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1351">
+        <v>1.9</v>
+      </c>
+      <c r="D1351">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1352" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1352">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="D1352">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C1354" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1354" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1354" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1354" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1355" s="4">
+        <v>96</v>
+      </c>
+      <c r="B1355" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1356" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1356" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1356" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1356" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1356" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1356" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1357" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1357">
+        <v>0.7</v>
+      </c>
+      <c r="E1357" t="s">
+        <v>206</v>
+      </c>
+      <c r="F1357">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="G1357">
+        <v>1.44E-2</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1358" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1358">
+        <v>2.24E-2</v>
+      </c>
+      <c r="D1358">
+        <v>3.78E-2</v>
+      </c>
+      <c r="E1358" t="s">
+        <v>205</v>
+      </c>
+      <c r="F1358" s="2">
+        <v>4.9969999999999995E-4</v>
+      </c>
+      <c r="G1358" s="2">
+        <v>8.2299999999999995E-4</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1359" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1359">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="D1359">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1360" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1360">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="D1360">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C1362" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1362" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1362" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1362" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1363" s="4">
+        <v>97</v>
+      </c>
+      <c r="B1363" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1364" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1364" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1364" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1364" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1364" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1364" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1365" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1365">
+        <v>0.7</v>
+      </c>
+      <c r="E1365" t="s">
+        <v>232</v>
+      </c>
+      <c r="F1365">
+        <v>8.2000000000000007E-3</v>
+      </c>
+      <c r="G1365">
+        <v>5.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1366" t="s">
+        <v>227</v>
+      </c>
+      <c r="C1366">
+        <v>2.1399999999999999E-2</v>
+      </c>
+      <c r="D1366">
+        <v>1.29E-2</v>
+      </c>
+      <c r="E1366" t="s">
+        <v>231</v>
+      </c>
+      <c r="F1366">
+        <v>1.4E-3</v>
+      </c>
+      <c r="G1366" s="7">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1367" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1367">
+        <v>0.17</v>
+      </c>
+      <c r="D1367">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1368" t="s">
+        <v>214</v>
+      </c>
+      <c r="C1368">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="D1368">
+        <v>3.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C1370" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1370" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1370" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1370" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1371" s="4">
+        <v>98</v>
+      </c>
+      <c r="B1371" s="3" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1372" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1372" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1372" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1372" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1372" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1372" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1373" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1373">
+        <v>0.7</v>
+      </c>
+      <c r="E1373" t="s">
+        <v>258</v>
+      </c>
+      <c r="F1373">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="G1373">
+        <v>1.4E-3</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1374" t="s">
+        <v>253</v>
+      </c>
+      <c r="C1374">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="D1374">
+        <v>7.7999999999999996E-3</v>
+      </c>
+      <c r="E1374" t="s">
+        <v>257</v>
+      </c>
+      <c r="F1374" s="2">
+        <v>8.6649999999999997E-4</v>
+      </c>
+      <c r="G1374" s="2">
+        <v>9.389E-4</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1375" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1375">
+        <v>0.66</v>
+      </c>
+      <c r="D1375">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1376" t="s">
+        <v>240</v>
+      </c>
+      <c r="C1376">
+        <v>2.3E-3</v>
+      </c>
+      <c r="D1376">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C1378" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1378" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1378" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1378" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1379" s="4">
+        <v>99</v>
+      </c>
+      <c r="B1379" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1380" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1380" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1380" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1380" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1380" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1380" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1381" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1381">
+        <v>0.7</v>
+      </c>
+      <c r="E1381" t="s">
+        <v>284</v>
+      </c>
+      <c r="F1381">
+        <v>1.5E-3</v>
+      </c>
+      <c r="G1381" s="7">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1382" t="s">
+        <v>279</v>
+      </c>
+      <c r="C1382">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="D1382">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="E1382" t="s">
+        <v>283</v>
+      </c>
+      <c r="F1382">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="G1382">
+        <v>1.1000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1383" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1383">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D1383">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1384" t="s">
+        <v>266</v>
+      </c>
+      <c r="C1384">
+        <v>2.3E-3</v>
+      </c>
+      <c r="D1384">
+        <v>1.1999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C1386" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1386" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1386" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1386" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1387" s="4">
+        <v>100</v>
+      </c>
+      <c r="B1387" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1388" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1388" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1388" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1388" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1388" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1388" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1389" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1389">
+        <v>1</v>
+      </c>
+      <c r="E1389" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1389">
+        <v>1.3100000000000001E-2</v>
+      </c>
+      <c r="G1389">
+        <v>5.0599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1390" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1390">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1391" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1391">
+        <v>5.91E-2</v>
+      </c>
+      <c r="D1391">
+        <v>9.4799999999999995E-2</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1392" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1392">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="D1392">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1393" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1393">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="D1393">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1394" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1394" s="2">
+        <v>2.7397000000000001E-4</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1395" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1395" s="2">
+        <v>8.2191999999999996E-4</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1396" t="s">
+        <v>424</v>
+      </c>
+      <c r="C1396">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C1398" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1398" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1398" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1398" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1399" s="4">
+        <v>101</v>
+      </c>
+      <c r="B1399" s="3" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1400" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1400" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1400" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1400" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1400" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1400" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1401" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1401">
+        <v>1</v>
+      </c>
+      <c r="E1401" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1401">
+        <v>1.3100000000000001E-2</v>
+      </c>
+      <c r="G1401">
+        <v>5.0599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1402" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1402">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1403" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1403">
+        <v>5.91E-2</v>
+      </c>
+      <c r="D1403">
+        <v>9.4799999999999995E-2</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1404" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1404" s="2">
+        <v>6.2879999999999994E-5</v>
+      </c>
+      <c r="D1404" s="2">
+        <v>5.533E-5</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1405" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1405">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="D1405">
+        <v>1.1999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1406" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1406" s="2">
+        <v>2.7397000000000001E-4</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1407" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1407" s="2">
+        <v>8.2191999999999996E-4</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1408" t="s">
+        <v>424</v>
+      </c>
+      <c r="C1408">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C1410" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1410" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1410" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1410" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1411" s="4">
+        <v>102</v>
+      </c>
+      <c r="B1411" s="3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1412" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1412" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1412" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1412" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1412" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1412" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1413" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1413">
+        <v>1</v>
+      </c>
+      <c r="E1413" t="s">
+        <v>155</v>
+      </c>
+      <c r="F1413">
+        <v>1.3100000000000001E-2</v>
+      </c>
+      <c r="G1413">
+        <v>5.0599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1414" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1414">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1415" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1415">
+        <v>5.91E-2</v>
+      </c>
+      <c r="D1415">
+        <v>9.4799999999999995E-2</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1416" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1416" s="2">
+        <v>2.5149999999999999E-4</v>
+      </c>
+      <c r="D1416" s="2">
+        <v>2.2130000000000001E-4</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1417" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1417">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="D1417">
+        <v>4.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1418" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1418" s="2">
+        <v>2.7397000000000001E-4</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1419" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1419" s="2">
+        <v>8.2191999999999996E-4</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1420" t="s">
+        <v>424</v>
+      </c>
+      <c r="C1420">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C1422" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1422" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1422" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1422" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1423" s="4">
+        <v>103</v>
+      </c>
+      <c r="B1423" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1424" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1424" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1424" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1424" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1424" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1424" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1425" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1425">
+        <v>0.5</v>
+      </c>
+      <c r="E1425" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1425" s="2">
+        <v>8.2100000000000001E-4</v>
+      </c>
+      <c r="G1425">
+        <v>3.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1426" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1426">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1427" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1427">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="D1427">
+        <v>1.44E-2</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1428" t="s">
+        <v>176</v>
+      </c>
+      <c r="C1428">
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="D1428">
+        <v>4.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1429" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1429">
+        <v>1.9</v>
+      </c>
+      <c r="D1429">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1430" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1430" s="2">
+        <v>2.7397000000000001E-4</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1431" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1431" s="2">
+        <v>8.2191999999999996E-4</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1432" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1432">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C1434" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1434" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1434" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1434" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1435" s="4">
+        <v>104</v>
+      </c>
+      <c r="B1435" s="3" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1436" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1436" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1436" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1436" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1436" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1436" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1437" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1437" s="9">
+        <v>1</v>
+      </c>
+      <c r="E1437" t="s">
+        <v>207</v>
+      </c>
+      <c r="F1437">
+        <v>2.8E-3</v>
+      </c>
+      <c r="G1437">
+        <v>9.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1438" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1438" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1439" t="s">
+        <v>206</v>
+      </c>
+      <c r="C1439">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="D1439">
+        <v>1.44E-2</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1440" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1440" s="2">
+        <v>3.4969999999999999E-4</v>
+      </c>
+      <c r="D1440" s="2">
+        <v>2.9169999999999999E-4</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1441" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1441">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="D1441">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1442" t="s">
+        <v>204</v>
+      </c>
+      <c r="C1442" s="2">
+        <v>2.7397000000000001E-4</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1443" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1443" s="2">
+        <v>8.2191999999999996E-4</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1444" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1444">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C1446" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1446" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1446" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1446" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1447" s="4">
+        <v>105</v>
+      </c>
+      <c r="B1447" s="3" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1448" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1448" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1448" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1448" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1448" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1448" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1449" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1449" s="9">
+        <v>1</v>
+      </c>
+      <c r="E1449" t="s">
+        <v>233</v>
+      </c>
+      <c r="F1449">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="G1449">
+        <v>1.8E-3</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1450" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1450" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1451" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1451">
+        <v>8.2000000000000007E-3</v>
+      </c>
+      <c r="D1451">
+        <v>5.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1452" t="s">
+        <v>228</v>
+      </c>
+      <c r="C1452" s="2">
+        <v>6.156E-4</v>
+      </c>
+      <c r="D1452" s="2">
+        <v>6.3880000000000002E-4</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1453" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1453">
+        <v>0.17</v>
+      </c>
+      <c r="D1453">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1454" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1454" s="2">
+        <v>2.7397000000000001E-4</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1455" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1455" s="2">
+        <v>8.2191999999999996E-4</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1456" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1456">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C1458" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1458" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1458" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1458" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1459" s="4">
+        <v>106</v>
+      </c>
+      <c r="B1459" s="3" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1460" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1460" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1460" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1460" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1460" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1460" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1461" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1461">
+        <v>0.5</v>
+      </c>
+      <c r="E1461" t="s">
+        <v>259</v>
+      </c>
+      <c r="F1461" s="2">
+        <v>6.9700000000000002E-6</v>
+      </c>
+      <c r="G1461" s="2">
+        <v>1.384E-5</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1462" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1462">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1463" t="s">
+        <v>258</v>
+      </c>
+      <c r="C1463">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="D1463">
+        <v>1.4E-3</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1464" t="s">
+        <v>254</v>
+      </c>
+      <c r="C1464">
+        <v>0</v>
+      </c>
+      <c r="D1464">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1465" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1465">
+        <v>0.66</v>
+      </c>
+      <c r="D1465">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1466" t="s">
+        <v>256</v>
+      </c>
+      <c r="C1466" s="2">
+        <v>2.7397000000000001E-4</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1467" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1467" s="2">
+        <v>8.2191999999999996E-4</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1468" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1468">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C1470" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1470" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1470" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1470" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1471" s="4">
+        <v>107</v>
+      </c>
+      <c r="B1471" s="3" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1472" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1472" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1472" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1472" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1472" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1472" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1473" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1473">
+        <v>0.5</v>
+      </c>
+      <c r="E1473" t="s">
+        <v>285</v>
+      </c>
+      <c r="F1473" s="2">
+        <v>2.6080000000000001E-5</v>
+      </c>
+      <c r="G1473" s="2">
+        <v>2.6E-7</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1474" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1474">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1475" t="s">
+        <v>284</v>
+      </c>
+      <c r="C1475">
+        <v>1.5E-3</v>
+      </c>
+      <c r="D1475" s="7">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1476" t="s">
+        <v>280</v>
+      </c>
+      <c r="C1476">
+        <v>0</v>
+      </c>
+      <c r="D1476">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1477" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1477">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D1477">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1478" t="s">
+        <v>282</v>
+      </c>
+      <c r="C1478" s="2">
+        <v>2.7397000000000001E-4</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1479" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1479" s="2">
+        <v>8.2191999999999996E-4</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1480" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1480">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C1482" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1482" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1482" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1482" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1483" s="4">
+        <v>108</v>
+      </c>
+      <c r="B1483" s="3" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1484" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1484" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1484" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1484" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1484" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1484" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1485" t="s">
+        <v>335</v>
+      </c>
+      <c r="C1485">
+        <v>2</v>
+      </c>
+      <c r="E1485" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1485">
+        <v>0</v>
+      </c>
+      <c r="G1485">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1486" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1486" s="2">
+        <v>8.2100000000000001E-4</v>
+      </c>
+      <c r="D1486">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="E1486" t="s">
+        <v>180</v>
+      </c>
+      <c r="F1486">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="G1486">
+        <v>1.44E-2</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1487" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1487">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="D1487">
+        <v>1.44E-2</v>
+      </c>
+      <c r="E1487" t="s">
+        <v>182</v>
+      </c>
+      <c r="F1487">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="G1487">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1488" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1488">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C1490" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1490" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1490" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1490" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1491" s="4">
+        <v>109</v>
+      </c>
+      <c r="B1491" s="3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1492" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1492" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1492" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1492" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1492" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1492" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1493" t="s">
+        <v>335</v>
+      </c>
+      <c r="C1493">
+        <v>2</v>
+      </c>
+      <c r="E1493" t="s">
+        <v>259</v>
+      </c>
+      <c r="F1493">
+        <v>0</v>
+      </c>
+      <c r="G1493">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1494" t="s">
+        <v>259</v>
+      </c>
+      <c r="C1494" s="2">
+        <v>6.9700000000000002E-6</v>
+      </c>
+      <c r="D1494" s="2">
+        <v>1.384E-5</v>
+      </c>
+      <c r="E1494" t="s">
+        <v>258</v>
+      </c>
+      <c r="F1494">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="G1494">
+        <v>1.4E-3</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1495" t="s">
+        <v>258</v>
+      </c>
+      <c r="C1495">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="D1495">
+        <v>1.4E-3</v>
+      </c>
+      <c r="E1495" t="s">
+        <v>260</v>
+      </c>
+      <c r="F1495" s="2">
+        <v>6.6339999999999997E-4</v>
+      </c>
+      <c r="G1495" s="2">
+        <v>7.2510000000000001E-4</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1496" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1496">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C1498" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1498" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1498" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1498" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1499" s="4">
+        <v>110</v>
+      </c>
+      <c r="B1499" s="3" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1500" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1500" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1500" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1500" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1500" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1500" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1501" t="s">
+        <v>335</v>
+      </c>
+      <c r="C1501">
+        <v>2</v>
+      </c>
+      <c r="E1501" t="s">
+        <v>285</v>
+      </c>
+      <c r="F1501">
+        <v>0</v>
+      </c>
+      <c r="G1501">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1502" t="s">
+        <v>285</v>
+      </c>
+      <c r="C1502" s="2">
+        <v>2.6080000000000001E-5</v>
+      </c>
+      <c r="D1502" s="2">
+        <v>2.6E-7</v>
+      </c>
+      <c r="E1502" t="s">
+        <v>284</v>
+      </c>
+      <c r="F1502">
+        <v>1.5E-3</v>
+      </c>
+      <c r="G1502" s="7">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1503" t="s">
+        <v>284</v>
+      </c>
+      <c r="C1503">
+        <v>1.5E-3</v>
+      </c>
+      <c r="D1503" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="E1503" t="s">
+        <v>286</v>
+      </c>
+      <c r="F1503" s="2">
+        <v>7.9929999999999997E-4</v>
+      </c>
+      <c r="G1503" s="2">
+        <v>4.883E-4</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1504" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1504">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C1506" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1506" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1506" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1506" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1507" s="4">
+        <v>111</v>
+      </c>
+      <c r="B1507" s="3" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1508" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1508" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1508" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1508" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1508" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1508" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1509" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1509">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="D1509">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E1509" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1509" s="2">
+        <v>9.8900000000000005E-5</v>
+      </c>
+      <c r="G1509" s="2">
+        <v>2.0819999999999999E-4</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1510" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1510">
+        <v>1.9</v>
+      </c>
+      <c r="D1510">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1511" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1511">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C1513" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1513" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1513" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1513" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1514" s="4">
+        <v>112</v>
+      </c>
+      <c r="B1514" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1515" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1515" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1515" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1515" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1515" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1515" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1516" t="s">
+        <v>260</v>
+      </c>
+      <c r="C1516" s="2">
+        <v>6.6339999999999997E-4</v>
+      </c>
+      <c r="D1516" s="2">
+        <v>7.2510000000000001E-4</v>
+      </c>
+      <c r="E1516" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1516" s="2">
+        <v>4.3789999999999999E-6</v>
+      </c>
+      <c r="G1516" s="2">
+        <v>4.7859999999999996E-6</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1517" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1517">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1518" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1518">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C1520" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1520" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1520" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1520" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1521" s="4">
+        <v>113</v>
+      </c>
+      <c r="B1521" s="3" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1522" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1522" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1522" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1522" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1522" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1522" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1523" t="s">
+        <v>286</v>
+      </c>
+      <c r="C1523" s="2">
+        <v>7.9929999999999997E-4</v>
+      </c>
+      <c r="D1523" s="2">
+        <v>4.883E-4</v>
+      </c>
+      <c r="E1523" t="s">
+        <v>157</v>
+      </c>
+      <c r="F1523" s="2">
+        <v>8.7919999999999998E-6</v>
+      </c>
+      <c r="G1523" s="2">
+        <v>5.3709999999999999E-6</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1524" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1524">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D1524">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1525" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1525">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C1527" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1527" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1527" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1527" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1528" s="4">
+        <v>114</v>
+      </c>
+      <c r="B1528" s="3" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1529" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1529" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1529" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1529" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1529" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1529" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1530" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1530" s="7">
+        <v>1.3100000000000001E-2</v>
+      </c>
+      <c r="D1530">
+        <v>5.0599999999999999E-2</v>
+      </c>
+      <c r="E1530" t="s">
+        <v>183</v>
+      </c>
+      <c r="F1530" s="2">
+        <v>2.8800000000000001E-4</v>
+      </c>
+      <c r="G1530" s="2">
+        <v>1.1000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1531" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1531" s="7">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="D1531">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C1532" s="7"/>
+    </row>
+    <row r="1533" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C1533" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1533" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1533" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1533" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1534" s="4">
+        <v>115</v>
+      </c>
+      <c r="B1534" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="C1534" s="7"/>
+    </row>
+    <row r="1535" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1535" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1535" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1535" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1535" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1535" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1535" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1536" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1536" s="7">
+        <v>1.3100000000000001E-2</v>
+      </c>
+      <c r="D1536">
+        <v>5.0599999999999999E-2</v>
+      </c>
+      <c r="E1536" t="s">
+        <v>209</v>
+      </c>
+      <c r="F1536" s="2">
+        <v>1.5719999999999999E-5</v>
+      </c>
+      <c r="G1536" s="2">
+        <v>6.0699999999999998E-5</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1537" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1537" s="7">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="D1537">
+        <v>1.1999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C1538" s="7"/>
+    </row>
+    <row r="1539" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C1539" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1539" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1539" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1539" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1540" s="4">
+        <v>116</v>
+      </c>
+      <c r="B1540" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="C1540" s="7"/>
+    </row>
+    <row r="1541" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1541" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1541" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1541" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1541" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1541" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1541" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1542" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1542" s="7">
+        <v>1.3100000000000001E-2</v>
+      </c>
+      <c r="D1542">
+        <v>5.0599999999999999E-2</v>
+      </c>
+      <c r="E1542" t="s">
+        <v>235</v>
+      </c>
+      <c r="F1542" s="2">
+        <v>6.2899999999999997E-5</v>
+      </c>
+      <c r="G1542" s="2">
+        <v>2.4279999999999999E-4</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1543" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1543" s="7">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="D1543">
+        <v>4.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C1544" s="7"/>
+    </row>
+    <row r="1545" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C1545" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1545" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1545" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1545" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1546" s="4">
+        <v>117</v>
+      </c>
+      <c r="B1546" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="C1546" s="7"/>
+    </row>
+    <row r="1547" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1547" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1547" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1547" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1547" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1547" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1547" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1548" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1548" s="7">
+        <v>2.8E-3</v>
+      </c>
+      <c r="D1548">
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="E1548" t="s">
+        <v>261</v>
+      </c>
+      <c r="F1548" s="2">
+        <v>1.6190000000000001E-4</v>
+      </c>
+      <c r="G1548" s="2">
+        <v>5.22E-4</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1549" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1549">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="D1549">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C1551" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1551" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1551" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1551" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1552" s="4">
+        <v>118</v>
+      </c>
+      <c r="B1552" s="3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1553" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1553" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1553" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1553" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1553" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1553" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1554" t="s">
+        <v>233</v>
+      </c>
+      <c r="C1554" s="7">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="D1554">
+        <v>1.8E-3</v>
+      </c>
+      <c r="E1554" t="s">
+        <v>287</v>
+      </c>
+      <c r="F1554" s="2">
+        <v>7.5239999999999997E-4</v>
+      </c>
+      <c r="G1554" s="2">
+        <v>3.121E-4</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1555" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1555">
+        <v>0.17</v>
+      </c>
+      <c r="D1555">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C1557" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1557" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1557" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1557" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1558" s="4">
+        <v>119</v>
+      </c>
+      <c r="B1558" s="3" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1559" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1559" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1559" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1559" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1559" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1559" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1560" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1560" s="7">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="D1560">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="E1560" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1560" s="7">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="G1560">
+        <v>2.2200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1561" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1561" s="2">
+        <v>9.8900000000000005E-5</v>
+      </c>
+      <c r="D1561" s="2">
+        <v>2.0819999999999999E-4</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1562" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1562">
+        <v>5.91E-2</v>
+      </c>
+      <c r="D1562">
+        <v>9.4799999999999995E-2</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1563" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1563">
+        <v>0</v>
+      </c>
+      <c r="D1563">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1564" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1564">
+        <v>1.3100000000000001E-2</v>
+      </c>
+      <c r="D1564">
+        <v>5.0599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1565" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1565">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="D1565" s="7">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1566" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1566" s="2">
+        <v>2.7397000000000001E-4</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C1568" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1568" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1568" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1568" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1569" s="4">
+        <v>120</v>
+      </c>
+      <c r="B1569" s="3" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1570" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1570" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1570" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1570" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1570" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1570" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1571" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1571" s="7">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="D1571">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="E1571" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1571">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="G1571">
+        <v>1.1999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1572" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1572" s="2">
+        <v>4.3789999999999999E-6</v>
+      </c>
+      <c r="D1572" s="2">
+        <v>4.7859999999999996E-6</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1573" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1573">
+        <v>5.91E-2</v>
+      </c>
+      <c r="D1573">
+        <v>9.4799999999999995E-2</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1574" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1574">
+        <v>0</v>
+      </c>
+      <c r="D1574">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1575" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1575">
+        <v>1.3100000000000001E-2</v>
+      </c>
+      <c r="D1575">
+        <v>5.0599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1576" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1576" s="2">
+        <v>6.2879999999999994E-5</v>
+      </c>
+      <c r="D1576" s="2">
+        <v>5.533E-5</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1577" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1577" s="2">
+        <v>2.7397000000000001E-4</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C1579" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1579" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1579" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1579" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1580" s="4">
+        <v>121</v>
+      </c>
+      <c r="B1580" s="3" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1581" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1581" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1581" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1581" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1581" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1581" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1582" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1582" s="7">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="D1582">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="E1582" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1582">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="G1582">
+        <v>4.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1583" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1583" s="2">
+        <v>8.7919999999999998E-6</v>
+      </c>
+      <c r="D1583" s="2">
+        <v>5.3709999999999999E-6</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1584" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1584">
+        <v>5.91E-2</v>
+      </c>
+      <c r="D1584">
+        <v>9.4799999999999995E-2</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1585" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1585">
+        <v>0</v>
+      </c>
+      <c r="D1585">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1586" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1586">
+        <v>1.3100000000000001E-2</v>
+      </c>
+      <c r="D1586">
+        <v>5.0599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1587" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1587" s="2">
+        <v>2.5149999999999999E-4</v>
+      </c>
+      <c r="D1587" s="2">
+        <v>2.2130000000000001E-4</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1588" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1588" s="2">
+        <v>2.7397000000000001E-4</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C1590" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1590" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1590" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1590" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1591" s="4">
+        <v>122</v>
+      </c>
+      <c r="B1591" s="3" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1592" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1592" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1592" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1592" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1592" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1592" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1593" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1593">
+        <v>1.9</v>
+      </c>
+      <c r="D1593">
+        <v>1.9</v>
+      </c>
+      <c r="E1593" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1593">
+        <v>1.9007000000000001</v>
+      </c>
+      <c r="G1593">
+        <v>1.9023000000000001</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1594" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1594" s="2">
+        <v>2.8800000000000001E-4</v>
+      </c>
+      <c r="D1594" s="2">
+        <v>1.1000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1595" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1595">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="D1595">
+        <v>1.44E-2</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1596" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1596">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="D1596">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1597" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1597">
+        <v>0</v>
+      </c>
+      <c r="D1597">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1598" t="s">
+        <v>176</v>
+      </c>
+      <c r="C1598">
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="D1598" s="2">
+        <v>4.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1599" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1599" s="2">
+        <v>2.7397000000000001E-4</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C1601" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1601" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1601" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1601" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1602" s="4">
+        <v>123</v>
+      </c>
+      <c r="B1602" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1603" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1603" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1603" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1603" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1603" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1603" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1604" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1604">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="D1604">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="E1604" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1604" s="7">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="G1604">
+        <v>5.7099999999999998E-2</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1605" t="s">
+        <v>209</v>
+      </c>
+      <c r="C1605" s="2">
+        <v>1.5719999999999999E-5</v>
+      </c>
+      <c r="D1605" s="2">
+        <v>6.0699999999999998E-5</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1606" t="s">
+        <v>206</v>
+      </c>
+      <c r="C1606">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="D1606">
+        <v>1.44E-2</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1607" t="s">
+        <v>208</v>
+      </c>
+      <c r="C1607">
+        <v>0</v>
+      </c>
+      <c r="D1607">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1608" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1608">
+        <v>2.8E-3</v>
+      </c>
+      <c r="D1608">
+        <v>9.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1609" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1609" s="2">
+        <v>3.4969999999999999E-4</v>
+      </c>
+      <c r="D1609" s="2">
+        <v>2.9169999999999999E-4</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1610" t="s">
+        <v>204</v>
+      </c>
+      <c r="C1610" s="2">
+        <v>2.7397000000000001E-4</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C1612" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1612" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1612" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1612" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1613" s="4">
+        <v>124</v>
+      </c>
+      <c r="B1613" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1614" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1614" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1614" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1614" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1614" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1614" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1615" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1615">
+        <v>0.17</v>
+      </c>
+      <c r="D1615">
+        <v>0.17</v>
+      </c>
+      <c r="E1615" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1615" s="7">
+        <v>0.17</v>
+      </c>
+      <c r="G1615">
+        <v>0.17019999999999999</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1616" t="s">
+        <v>235</v>
+      </c>
+      <c r="C1616" s="2">
+        <v>6.2899999999999997E-5</v>
+      </c>
+      <c r="D1616" s="2">
+        <v>2.4279999999999999E-4</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1617" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1617">
+        <v>8.2000000000000007E-3</v>
+      </c>
+      <c r="D1617">
+        <v>5.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1618" t="s">
+        <v>234</v>
+      </c>
+      <c r="C1618">
+        <v>0</v>
+      </c>
+      <c r="D1618">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1619" t="s">
+        <v>233</v>
+      </c>
+      <c r="C1619">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="D1619">
+        <v>1.8E-3</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1620" t="s">
+        <v>228</v>
+      </c>
+      <c r="C1620" s="2">
+        <v>6.156E-4</v>
+      </c>
+      <c r="D1620" s="2">
+        <v>6.3880000000000002E-4</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1621" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1621" s="2">
+        <v>2.7397000000000001E-4</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C1623" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1623" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1623" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1623" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1624" s="4">
+        <v>125</v>
+      </c>
+      <c r="B1624" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1625" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1625" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1625" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1625" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1625" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1625" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1626" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1626">
+        <v>0.66</v>
+      </c>
+      <c r="D1626">
+        <v>0.66</v>
+      </c>
+      <c r="E1626" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1626">
+        <v>0.66039999999999999</v>
+      </c>
+      <c r="G1626">
+        <v>0.66080000000000005</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1627" t="s">
+        <v>261</v>
+      </c>
+      <c r="C1627" s="2">
+        <v>1.6190000000000001E-4</v>
+      </c>
+      <c r="D1627" s="2">
+        <v>5.22E-4</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1628" t="s">
+        <v>258</v>
+      </c>
+      <c r="C1628">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="D1628">
+        <v>1.4E-3</v>
+      </c>
+    </row>
+    <row r="1629" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1629" t="s">
+        <v>260</v>
+      </c>
+      <c r="C1629" s="2">
+        <v>6.6339999999999997E-4</v>
+      </c>
+      <c r="D1629" s="2">
+        <v>7.2510000000000001E-4</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1630" t="s">
+        <v>259</v>
+      </c>
+      <c r="C1630">
+        <v>0</v>
+      </c>
+      <c r="D1630">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1631" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1631" t="s">
+        <v>254</v>
+      </c>
+      <c r="C1631">
+        <v>0</v>
+      </c>
+      <c r="D1631">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1632" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1632" t="s">
+        <v>256</v>
+      </c>
+      <c r="C1632" s="2">
+        <v>2.7397000000000001E-4</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C1634" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1634" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1634" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1634" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1635" s="4">
+        <v>126</v>
+      </c>
+      <c r="B1635" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1636" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1636" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1636" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1636" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1636" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1636" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1637" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1637">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D1637">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E1637" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1637">
+        <v>1.1012999999999999</v>
+      </c>
+      <c r="G1637">
+        <v>1.1005</v>
+      </c>
+    </row>
+    <row r="1638" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1638" t="s">
+        <v>287</v>
+      </c>
+      <c r="C1638" s="2">
+        <v>7.5239999999999997E-4</v>
+      </c>
+      <c r="D1638" s="2">
+        <v>3.121E-4</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1639" t="s">
+        <v>284</v>
+      </c>
+      <c r="C1639">
+        <v>1.5E-3</v>
+      </c>
+      <c r="D1639" s="7">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1640" t="s">
+        <v>286</v>
+      </c>
+      <c r="C1640" s="2">
+        <v>7.9929999999999997E-4</v>
+      </c>
+      <c r="D1640" s="2">
+        <v>4.883E-4</v>
+      </c>
+    </row>
+    <row r="1641" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1641" t="s">
+        <v>285</v>
+      </c>
+      <c r="C1641">
+        <v>0</v>
+      </c>
+      <c r="D1641">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1642" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1642" t="s">
+        <v>280</v>
+      </c>
+      <c r="C1642">
+        <v>0</v>
+      </c>
+      <c r="D1642">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1643" t="s">
+        <v>282</v>
+      </c>
+      <c r="C1643" s="2">
+        <v>2.7397000000000001E-4</v>
+      </c>
+    </row>
+    <row r="1645" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C1645" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1645" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1645" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1645" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1646" s="4">
+        <v>127</v>
+      </c>
+      <c r="B1646" s="3" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="1647" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1647" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1647" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1647" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1647" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1647" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1647" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1648" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1648" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1648">
+        <v>1.9007000000000001</v>
+      </c>
+      <c r="D1648">
+        <v>1.9023000000000001</v>
+      </c>
+      <c r="E1648" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1648">
+        <v>1.8991</v>
+      </c>
+      <c r="G1648">
+        <v>1.9008</v>
+      </c>
+    </row>
+    <row r="1649" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1649" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1649" s="2">
+        <v>8.2191999999999996E-4</v>
+      </c>
+      <c r="E1649" t="s">
+        <v>185</v>
+      </c>
+      <c r="F1649">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="G1649">
+        <v>1.6000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1650" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1650" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1650">
+        <v>1</v>
+      </c>
+      <c r="E1650" t="s">
+        <v>186</v>
+      </c>
+      <c r="F1650" s="2">
+        <v>8.2189999999999997E-4</v>
+      </c>
+      <c r="G1650" s="2">
+        <v>8.2189999999999997E-4</v>
+      </c>
+    </row>
+    <row r="1652" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C1652" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1652" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1652" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1652" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1653" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1653" s="4">
+        <v>128</v>
+      </c>
+      <c r="B1653" s="3" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1654" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1654" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1654" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1654" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1654" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1654" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1654" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1655" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1655" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1655" s="7">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="D1655">
+        <v>5.7099999999999998E-2</v>
+      </c>
+      <c r="E1655" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1655" s="7">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="G1655" s="7">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="1656" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1656" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1656" s="2">
+        <v>8.2191999999999996E-4</v>
+      </c>
+      <c r="E1656" t="s">
+        <v>211</v>
+      </c>
+      <c r="F1656" s="2">
+        <v>4.6840000000000004E-6</v>
+      </c>
+      <c r="G1656" s="2">
+        <v>4.6890000000000003E-6</v>
+      </c>
+    </row>
+    <row r="1657" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1657" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1657">
+        <v>0.1</v>
+      </c>
+      <c r="E1657" t="s">
+        <v>212</v>
+      </c>
+      <c r="F1657" s="2">
+        <v>8.2189999999999997E-4</v>
+      </c>
+      <c r="G1657" s="2">
+        <v>8.2189999999999997E-4</v>
+      </c>
+    </row>
+    <row r="1659" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C1659" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1659" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1659" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1659" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1660" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1660" s="4">
+        <v>129</v>
+      </c>
+      <c r="B1660" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="1661" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1661" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1661" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1661" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1661" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1661" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1661" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1662" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1662" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1662" s="7">
+        <v>0.17</v>
+      </c>
+      <c r="D1662">
+        <v>0.17019999999999999</v>
+      </c>
+      <c r="E1662" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1662" s="7">
+        <v>0.17</v>
+      </c>
+      <c r="G1662">
+        <v>0.17019999999999999</v>
+      </c>
+    </row>
+    <row r="1663" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1663" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1663" s="2">
+        <v>8.2191999999999996E-4</v>
+      </c>
+      <c r="E1663" t="s">
+        <v>237</v>
+      </c>
+      <c r="F1663" s="2">
+        <v>1.398E-5</v>
+      </c>
+      <c r="G1663" s="2">
+        <v>1.399E-5</v>
+      </c>
+    </row>
+    <row r="1664" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1664" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1664">
+        <v>0.1</v>
+      </c>
+      <c r="E1664" t="s">
+        <v>238</v>
+      </c>
+      <c r="F1664" s="2">
+        <v>8.2189999999999997E-4</v>
+      </c>
+      <c r="G1664" s="2">
+        <v>8.2189999999999997E-4</v>
+      </c>
+    </row>
+    <row r="1666" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C1666" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1666" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1666" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1666" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1667" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1667" s="4">
+        <v>130</v>
+      </c>
+      <c r="B1667" s="3" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="1668" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1668" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1668" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1668" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1668" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1668" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1668" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1669" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1669" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1669">
+        <v>0.66039999999999999</v>
+      </c>
+      <c r="D1669">
+        <v>0.66080000000000005</v>
+      </c>
+      <c r="E1669" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1669">
+        <v>0.65990000000000004</v>
+      </c>
+      <c r="G1669">
+        <v>0.6603</v>
+      </c>
+    </row>
+    <row r="1670" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1670" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1670" s="2">
+        <v>8.2191999999999996E-4</v>
+      </c>
+      <c r="E1670" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1670" s="2">
+        <v>5.4279999999999997E-4</v>
+      </c>
+      <c r="G1670" s="2">
+        <v>5.4310000000000003E-4</v>
+      </c>
+    </row>
+    <row r="1671" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1671" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1671">
+        <v>1</v>
+      </c>
+      <c r="E1671" t="s">
+        <v>264</v>
+      </c>
+      <c r="F1671" s="2">
+        <v>8.2189999999999997E-4</v>
+      </c>
+      <c r="G1671" s="2">
+        <v>8.2189999999999997E-4</v>
+      </c>
+    </row>
+    <row r="1673" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C1673" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1673" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1673" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1673" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1674" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1674" s="4">
+        <v>131</v>
+      </c>
+      <c r="B1674" s="3" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="1675" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1675" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1675" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1675" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1675" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1675" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1675" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1676" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1676" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1676">
+        <v>1.1012999999999999</v>
+      </c>
+      <c r="D1676">
+        <v>1.1005</v>
+      </c>
+      <c r="E1676" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1676">
+        <v>1.1004</v>
+      </c>
+      <c r="G1676">
+        <v>1.0995999999999999</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1677" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1677" s="2">
+        <v>8.2191999999999996E-4</v>
+      </c>
+      <c r="E1677" t="s">
+        <v>289</v>
+      </c>
+      <c r="F1677" s="2">
+        <v>9.0519999999999999E-4</v>
+      </c>
+      <c r="G1677" s="2">
+        <v>9.0459999999999998E-4</v>
+      </c>
+    </row>
+    <row r="1678" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1678" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1678">
+        <v>1</v>
+      </c>
+      <c r="E1678" t="s">
+        <v>290</v>
+      </c>
+      <c r="F1678" s="2">
+        <v>8.2189999999999997E-4</v>
+      </c>
+      <c r="G1678" s="2">
+        <v>8.2189999999999997E-4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
